--- a/dernière partie.xlsx
+++ b/dernière partie.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4dc1d78086924ab9/Documents/!ENSIBS/ENSIBS/Math/Nombre aléa/Generateur_Pseudo_Aleatoire/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_561B52CE19AA29FB3715F8D470F64EEDFDA15D4F" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,9 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tirage</t>
+  </si>
+  <si>
+    <t>Liste linéaire avec les valeurs du tp</t>
   </si>
   <si>
     <t>Liste LSFR</t>
@@ -44,9 +48,6 @@
     <t>rand +1</t>
   </si>
   <si>
-    <t>Liste linéaire avec les valeurs du tp</t>
-  </si>
-  <si>
     <t>Liste linéaire avec valeur modifié</t>
   </si>
   <si>
@@ -56,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,7 +176,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6319,7 +6320,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="419441520"/>
@@ -6381,7 +6382,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="419445456"/>
@@ -6422,7 +6423,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6473,7 +6474,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12617,7 +12618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="557008856"/>
@@ -12679,7 +12680,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="419440208"/>
@@ -12720,7 +12721,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12771,7 +12772,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -18905,7 +18906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="557010496"/>
@@ -18967,7 +18968,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="557010168"/>
@@ -19008,7 +19009,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20801,7 +20802,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -21096,14 +21097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="AJ85" sqref="AJ85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
@@ -21112,27 +21113,27 @@
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21141,7 +21142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21170,7 +21171,7 @@
         <v>13949404</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -21200,7 +21201,7 @@
         <v>371915505</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -21230,7 +21231,7 @@
         <v>1606479765</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -21260,7 +21261,7 @@
         <v>1941000271</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -21290,7 +21291,7 @@
         <v>2114956767</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -21320,7 +21321,7 @@
         <v>929057825</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -21350,7 +21351,7 @@
         <v>321267438</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -21380,7 +21381,7 @@
         <v>767941908</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -21410,7 +21411,7 @@
         <v>422929286</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -21440,7 +21441,7 @@
         <v>1638232</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -21470,7 +21471,7 @@
         <v>1763961460</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -21500,7 +21501,7 @@
         <v>888511385</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -21530,7 +21531,7 @@
         <v>1757050104</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -21560,7 +21561,7 @@
         <v>693468031</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -21590,7 +21591,7 @@
         <v>723444748</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -21620,7 +21621,7 @@
         <v>2030953969</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -21650,7 +21651,7 @@
         <v>2138271565</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -21680,7 +21681,7 @@
         <v>1938844057</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -21710,7 +21711,7 @@
         <v>235206421</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -21740,7 +21741,7 @@
         <v>1744407267</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -21770,7 +21771,7 @@
         <v>806187625</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -21800,7 +21801,7 @@
         <v>1121084452</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -21830,7 +21831,7 @@
         <v>44865986</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -21860,7 +21861,7 @@
         <v>295866605</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -21890,7 +21891,7 @@
         <v>1205387430</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -21920,7 +21921,7 @@
         <v>1733293859</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -21950,7 +21951,7 @@
         <v>854216658</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -21980,7 +21981,7 @@
         <v>891190811</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -22010,7 +22011,7 @@
         <v>1693006299</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -22040,7 +22041,7 @@
         <v>198544543</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -22070,7 +22071,7 @@
         <v>1896030410</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -22100,7 +22101,7 @@
         <v>73263037</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -22130,7 +22131,7 @@
         <v>823733128</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -22160,7 +22161,7 @@
         <v>1803093734</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -22190,7 +22191,7 @@
         <v>1454644521</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -22220,7 +22221,7 @@
         <v>1256626999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -22250,7 +22251,7 @@
         <v>1775787595</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -22280,7 +22281,7 @@
         <v>2081866806</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -22310,7 +22311,7 @@
         <v>984347871</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -22340,7 +22341,7 @@
         <v>1868135056</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -22370,7 +22371,7 @@
         <v>1534967052</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -22400,7 +22401,7 @@
         <v>470191553</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -22430,7 +22431,7 @@
         <v>1917093958</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -22460,7 +22461,7 @@
         <v>1900996165</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -22490,7 +22491,7 @@
         <v>1928328736</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -22520,7 +22521,7 @@
         <v>1745349075</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -22550,7 +22551,7 @@
         <v>1602769152</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -22580,7 +22581,7 @@
         <v>1853753343</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -22610,7 +22611,7 @@
         <v>339685125</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -22640,7 +22641,7 @@
         <v>1076362149</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -22670,7 +22671,7 @@
         <v>16395915</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -22700,7 +22701,7 @@
         <v>688236589</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -22730,7 +22731,7 @@
         <v>845428581</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -22760,7 +22761,7 @@
         <v>1366352315</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -22790,7 +22791,7 @@
         <v>1240720834</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -22820,7 +22821,7 @@
         <v>728844668</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -22850,7 +22851,7 @@
         <v>445612588</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -22880,7 +22881,7 @@
         <v>1135289427</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -22910,7 +22911,7 @@
         <v>417195994</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -22940,7 +22941,7 @@
         <v>278963703</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -22970,7 +22971,7 @@
         <v>586154920</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -23000,7 +23001,7 @@
         <v>998251651</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -23030,7 +23031,7 @@
         <v>1473247993</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -23060,7 +23061,7 @@
         <v>392568441</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -23090,7 +23091,7 @@
         <v>828024303</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -23120,7 +23121,7 @@
         <v>910427961</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
@@ -23150,7 +23151,7 @@
         <v>741755652</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -23180,7 +23181,7 @@
         <v>544672329</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -23210,7 +23211,7 @@
         <v>1732529989</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -23240,7 +23241,7 @@
         <v>900755450</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -23270,7 +23271,7 @@
         <v>1384620447</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -23300,7 +23301,7 @@
         <v>1183053837</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -23330,7 +23331,7 @@
         <v>34750886</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -23360,7 +23361,7 @@
         <v>2090072665</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -23390,7 +23391,7 @@
         <v>1461266676</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -23420,7 +23421,7 @@
         <v>886036440</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -23450,7 +23451,7 @@
         <v>962838782</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -23480,7 +23481,7 @@
         <v>1142128929</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -23510,7 +23511,7 @@
         <v>1552072817</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -23540,7 +23541,7 @@
         <v>203975210</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -23570,7 +23571,7 @@
         <v>827453858</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -23600,7 +23601,7 @@
         <v>2060377081</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -23630,7 +23631,7 @@
         <v>583792492</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -23660,7 +23661,7 @@
         <v>2095113548</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -23690,7 +23691,7 @@
         <v>284041377</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -23720,7 +23721,7 @@
         <v>27275958</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -23750,7 +23751,7 @@
         <v>1013009295</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -23780,7 +23781,7 @@
         <v>396867649</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -23810,7 +23811,7 @@
         <v>70369161</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -23840,7 +23841,7 @@
         <v>1578483077</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -23870,7 +23871,7 @@
         <v>1699583748</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -23900,7 +23901,7 @@
         <v>1224063889</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -23930,7 +23931,7 @@
         <v>2095927810</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -23960,7 +23961,7 @@
         <v>1084440929</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -23990,7 +23991,7 @@
         <v>504981614</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -24020,7 +24021,7 @@
         <v>370613554</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -24050,7 +24051,7 @@
         <v>1199425778</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -24080,7 +24081,7 @@
         <v>320056457</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -24110,7 +24111,7 @@
         <v>1889820711</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -24140,7 +24141,7 @@
         <v>933550647</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -24170,7 +24171,7 @@
         <v>670199147</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -24200,7 +24201,7 @@
         <v>485335114</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -24230,7 +24231,7 @@
         <v>884369692</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -24260,7 +24261,7 @@
         <v>867092557</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -24290,7 +24291,7 @@
         <v>400576957</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -24320,7 +24321,7 @@
         <v>135682954</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -24350,7 +24351,7 @@
         <v>1943258411</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -24380,7 +24381,7 @@
         <v>1412810101</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -24410,7 +24411,7 @@
         <v>372682628</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -24440,7 +24441,7 @@
         <v>1614614144</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -24470,7 +24471,7 @@
         <v>1216554716</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -24500,7 +24501,7 @@
         <v>443308725</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -24530,7 +24531,7 @@
         <v>1068969632</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -24560,7 +24561,7 @@
         <v>324414222</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -24590,7 +24591,7 @@
         <v>2116333068</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -24620,7 +24621,7 @@
         <v>438228615</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -24650,7 +24651,7 @@
         <v>1586906742</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -24680,7 +24681,7 @@
         <v>1542200701</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -24710,7 +24711,7 @@
         <v>1787046064</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -24740,7 +24741,7 @@
         <v>176910706</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -24770,7 +24771,7 @@
         <v>1220868294</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -24800,7 +24801,7 @@
         <v>2074653820</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -24830,7 +24831,7 @@
         <v>14776401</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -24860,7 +24861,7 @@
         <v>1386352202</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -24890,7 +24891,7 @@
         <v>223889064</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -24920,7 +24921,7 @@
         <v>512149104</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -24950,7 +24951,7 @@
         <v>575533752</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -24980,7 +24981,7 @@
         <v>729423776</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -25010,7 +25011,7 @@
         <v>1588746156</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -25040,7 +25041,7 @@
         <v>244977094</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>131</v>
@@ -25070,7 +25071,7 @@
         <v>603867559</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -25100,7 +25101,7 @@
         <v>194348391</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -25130,7 +25131,7 @@
         <v>90780450</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -25160,7 +25161,7 @@
         <v>1033633780</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -25190,7 +25191,7 @@
         <v>1287719877</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -25220,7 +25221,7 @@
         <v>367778273</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -25250,7 +25251,7 @@
         <v>791498245</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -25280,7 +25281,7 @@
         <v>1197294197</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -25310,7 +25311,7 @@
         <v>1001796589</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -25340,7 +25341,7 @@
         <v>923478843</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -25370,7 +25371,7 @@
         <v>1044597432</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -25400,7 +25401,7 @@
         <v>870225399</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -25430,7 +25431,7 @@
         <v>1514644923</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -25460,7 +25461,7 @@
         <v>366069323</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -25490,7 +25491,7 @@
         <v>2133946653</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -25520,7 +25521,7 @@
         <v>117008424</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -25550,7 +25551,7 @@
         <v>1613045163</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -25580,7 +25581,7 @@
         <v>616494813</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -25610,7 +25611,7 @@
         <v>1967208963</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -25640,7 +25641,7 @@
         <v>222811929</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -25670,7 +25671,7 @@
         <v>1736093982</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -25700,7 +25701,7 @@
         <v>671243685</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -25730,7 +25731,7 @@
         <v>861016104</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -25760,7 +25761,7 @@
         <v>1352846442</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -25790,7 +25791,7 @@
         <v>1880779905</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -25820,7 +25821,7 @@
         <v>1456063142</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -25850,7 +25851,7 @@
         <v>1477070029</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -25880,7 +25881,7 @@
         <v>205018083</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -25910,7 +25911,7 @@
         <v>1175151193</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -25940,7 +25941,7 @@
         <v>358999292</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -25970,7 +25971,7 @@
         <v>1419536221</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -26000,7 +26001,7 @@
         <v>1749431824</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -26030,7 +26031,7 @@
         <v>1502054891</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -26060,7 +26061,7 @@
         <v>1366282552</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -26090,7 +26091,7 @@
         <v>68214093</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -26120,7 +26121,7 @@
         <v>1865477200</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -26150,7 +26151,7 @@
         <v>1961537847</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -26180,7 +26181,7 @@
         <v>1545129432</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -26210,7 +26211,7 @@
         <v>1618104100</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -26240,7 +26241,7 @@
         <v>1890186739</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -26270,7 +26271,7 @@
         <v>642932302</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -26300,7 +26301,7 @@
         <v>1772971657</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -26330,7 +26331,7 @@
         <v>1999037074</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -26360,7 +26361,7 @@
         <v>434445403</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -26390,7 +26391,7 @@
         <v>279488421</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -26420,7 +26421,7 @@
         <v>815155758</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -26450,7 +26451,7 @@
         <v>1524640493</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -26480,7 +26481,7 @@
         <v>857889847</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -26510,7 +26511,7 @@
         <v>349452571</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -26540,7 +26541,7 @@
         <v>2029069899</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -26570,7 +26571,7 @@
         <v>537478133</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -26600,7 +26601,7 @@
         <v>1078762049</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -26630,7 +26631,7 @@
         <v>1696809569</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -26660,7 +26661,7 @@
         <v>1843077670</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -26690,7 +26691,7 @@
         <v>1302275362</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -26720,7 +26721,7 @@
         <v>188678910</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -26750,7 +26751,7 @@
         <v>1440577398</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -26780,7 +26781,7 @@
         <v>1053691908</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -26810,7 +26811,7 @@
         <v>1249744594</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -26840,7 +26841,7 @@
         <v>2067323698</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -26870,7 +26871,7 @@
         <v>1371467473</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -26900,7 +26901,7 @@
         <v>1311835460</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -26930,7 +26931,7 @@
         <v>1951456118</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -26960,7 +26961,7 @@
         <v>1752718242</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196">
         <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>195</v>
@@ -26990,7 +26991,7 @@
         <v>902307395</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -27020,7 +27021,7 @@
         <v>1698356298</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -27050,7 +27051,7 @@
         <v>2069148209</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -27080,7 +27081,7 @@
         <v>1971252792</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -27110,7 +27111,7 @@
         <v>1615452875</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -27140,7 +27141,7 @@
         <v>280721104</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -27170,7 +27171,7 @@
         <v>58022469</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -27200,7 +27201,7 @@
         <v>226060745</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -27230,7 +27231,7 @@
         <v>504369672</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -27260,7 +27261,7 @@
         <v>823122595</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -27290,7 +27291,7 @@
         <v>131800191</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -27320,7 +27321,7 @@
         <v>1110170080</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -27350,7 +27351,7 @@
         <v>1290609424</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -27380,7 +27381,7 @@
         <v>1687754468</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -27410,7 +27411,7 @@
         <v>2125334100</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -27440,7 +27441,7 @@
         <v>1394718149</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -27470,7 +27471,7 @@
         <v>1243923238</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -27500,7 +27501,7 @@
         <v>864557521</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -27530,7 +27531,7 @@
         <v>743899845</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -27560,7 +27561,7 @@
         <v>74902081</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -27590,7 +27591,7 @@
         <v>453858225</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -27620,7 +27621,7 @@
         <v>133273431</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -27650,7 +27651,7 @@
         <v>101110996</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -27680,7 +27681,7 @@
         <v>712944995</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -27710,7 +27711,7 @@
         <v>1655264352</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -27740,7 +27741,7 @@
         <v>1524800826</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -27770,7 +27771,7 @@
         <v>1405122931</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -27800,7 +27801,7 @@
         <v>23435258</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -27830,7 +27831,7 @@
         <v>886873805</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -27860,7 +27861,7 @@
         <v>4046808</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -27890,7 +27891,7 @@
         <v>1442708999</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -27920,7 +27921,7 @@
         <v>372287916</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -27950,7 +27951,7 @@
         <v>1423140501</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -27980,7 +27981,7 @@
         <v>49540021</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -28010,7 +28011,7 @@
         <v>1542961558</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -28040,7 +28041,7 @@
         <v>1689867781</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -28070,7 +28071,7 @@
         <v>1136563692</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -28100,7 +28101,7 @@
         <v>358931379</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -28130,7 +28131,7 @@
         <v>278122430</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -28160,7 +28161,7 @@
         <v>1479265138</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -28190,7 +28191,7 @@
         <v>590993047</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -28220,7 +28221,7 @@
         <v>708273554</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -28250,7 +28251,7 @@
         <v>451766757</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -28280,7 +28281,7 @@
         <v>1489192754</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -28310,7 +28311,7 @@
         <v>2088194340</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -28340,7 +28341,7 @@
         <v>2104513106</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -28370,7 +28371,7 @@
         <v>1496106452</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -28400,7 +28401,7 @@
         <v>175116041</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -28430,7 +28431,7 @@
         <v>1122704697</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -28460,7 +28461,7 @@
         <v>1506519937</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -28490,7 +28491,7 @@
         <v>1248383029</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -28520,7 +28521,7 @@
         <v>658337213</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -28550,7 +28551,7 @@
         <v>837789547</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -28580,7 +28581,7 @@
         <v>1826126697</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -28610,7 +28611,7 @@
         <v>2022597202</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -28640,7 +28641,7 @@
         <v>1272525651</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -28670,7 +28671,7 @@
         <v>548975884</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -28700,7 +28701,7 @@
         <v>1047934876</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -28730,7 +28731,7 @@
         <v>1128071885</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -28760,7 +28761,7 @@
         <v>1518535479</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -28790,7 +28791,7 @@
         <v>1330134605</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -28820,7 +28821,7 @@
         <v>267540965</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -28850,7 +28851,7 @@
         <v>1877725584</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9">
       <c r="A259">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -28880,7 +28881,7 @@
         <v>1661697623</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9">
       <c r="A260">
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>259</v>
@@ -28910,7 +28911,7 @@
         <v>127120526</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -28940,7 +28941,7 @@
         <v>1915935364</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -28970,7 +28971,7 @@
         <v>1755859630</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -29000,7 +29001,7 @@
         <v>12524336</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -29030,7 +29031,7 @@
         <v>43117746</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -29060,7 +29061,7 @@
         <v>977967983</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -29090,7 +29091,7 @@
         <v>2015539790</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -29120,7 +29121,7 @@
         <v>770202752</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -29150,7 +29151,7 @@
         <v>1913712395</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -29180,7 +29181,7 @@
         <v>901641646</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -29210,7 +29211,7 @@
         <v>1246531090</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -29240,7 +29241,7 @@
         <v>1745053145</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -29270,7 +29271,7 @@
         <v>924040936</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -29300,7 +29301,7 @@
         <v>1901759895</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -29330,7 +29331,7 @@
         <v>1879436964</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -29360,7 +29361,7 @@
         <v>360090225</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -29390,7 +29391,7 @@
         <v>427494329</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -29420,7 +29421,7 @@
         <v>1564388288</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -29450,7 +29451,7 @@
         <v>1031666195</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -29480,7 +29481,7 @@
         <v>430773487</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -29510,7 +29511,7 @@
         <v>842621972</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -29540,7 +29541,7 @@
         <v>1440315086</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -29570,7 +29571,7 @@
         <v>939981418</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -29600,7 +29601,7 @@
         <v>1377984994</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -29630,7 +29631,7 @@
         <v>1330144910</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -29660,7 +29661,7 @@
         <v>440737100</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -29690,7 +29691,7 @@
         <v>797341197</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -29720,7 +29721,7 @@
         <v>615540699</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -29750,7 +29751,7 @@
         <v>963800494</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -29780,7 +29781,7 @@
         <v>125753337</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -29810,7 +29811,7 @@
         <v>412426311</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -29840,7 +29841,7 @@
         <v>1719280108</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -29870,7 +29871,7 @@
         <v>1548304771</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -29900,7 +29901,7 @@
         <v>1298935498</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -29930,7 +29931,7 @@
         <v>2037643131</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -29960,7 +29961,7 @@
         <v>746384008</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -29990,7 +29991,7 @@
         <v>1024040329</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -30020,7 +30021,7 @@
         <v>1111862445</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -30050,7 +30051,7 @@
         <v>1816900568</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -30080,7 +30081,7 @@
         <v>1577869683</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -30110,7 +30111,7 @@
         <v>2127689025</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -30140,7 +30141,7 @@
         <v>171753331</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -30170,7 +30171,7 @@
         <v>440212549</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -30200,7 +30201,7 @@
         <v>571147128</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -30230,7 +30231,7 @@
         <v>17878206</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -30260,7 +30261,7 @@
         <v>1978781309</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -30290,7 +30291,7 @@
         <v>1445702921</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -30320,7 +30321,7 @@
         <v>1299011089</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -30350,7 +30351,7 @@
         <v>1160617421</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -30380,7 +30381,7 @@
         <v>903029046</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -30410,7 +30411,7 @@
         <v>942242773</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -30440,7 +30441,7 @@
         <v>729872833</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -30470,7 +30471,7 @@
         <v>546112567</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -30500,7 +30501,7 @@
         <v>168806291</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -30530,7 +30531,7 @@
         <v>301435150</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -30560,7 +30561,7 @@
         <v>306642777</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -30590,7 +30591,7 @@
         <v>1931883886</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -30620,7 +30621,7 @@
         <v>1367213009</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -30650,7 +30651,7 @@
         <v>674019363</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -30680,7 +30681,7 @@
         <v>267196016</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -30710,7 +30711,7 @@
         <v>375135035</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -30740,7 +30741,7 @@
         <v>2030029300</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -30770,7 +30771,7 @@
         <v>1629745211</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>322</v>
@@ -30800,7 +30801,7 @@
         <v>2121327439</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9">
       <c r="A324">
         <f t="shared" ref="A324:A387" si="5">A323+1</f>
         <v>323</v>
@@ -30830,7 +30831,7 @@
         <v>626759779</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9">
       <c r="A325">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -30860,7 +30861,7 @@
         <v>544317118</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -30890,7 +30891,7 @@
         <v>57466006</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -30920,7 +30921,7 @@
         <v>1611005339</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -30950,7 +30951,7 @@
         <v>692911197</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -30980,7 +30981,7 @@
         <v>2102153945</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -31010,7 +31011,7 @@
         <v>500393171</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -31040,7 +31041,7 @@
         <v>562063345</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -31070,7 +31071,7 @@
         <v>1965559909</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -31100,7 +31101,7 @@
         <v>424448762</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -31130,7 +31131,7 @@
         <v>1917151247</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -31160,7 +31161,7 @@
         <v>716368741</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -31190,7 +31191,7 @@
         <v>1216104905</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -31220,7 +31221,7 @@
         <v>1473269836</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -31250,7 +31251,7 @@
         <v>759683742</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -31280,7 +31281,7 @@
         <v>1214370379</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -31310,7 +31311,7 @@
         <v>238378765</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -31340,7 +31341,7 @@
         <v>1374901700</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -31370,7 +31371,7 @@
         <v>1048830180</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -31400,7 +31401,7 @@
         <v>1143060684</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -31430,7 +31431,7 @@
         <v>32209926</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -31460,7 +31461,7 @@
         <v>186347238</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -31490,7 +31491,7 @@
         <v>906871740</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -31520,7 +31521,7 @@
         <v>1101891421</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -31550,7 +31551,7 @@
         <v>1737624666</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -31580,7 +31581,7 @@
         <v>627645909</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -31610,7 +31611,7 @@
         <v>405118499</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -31640,7 +31641,7 @@
         <v>1303451703</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -31670,7 +31671,7 @@
         <v>632089274</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -31700,7 +31701,7 @@
         <v>2070310056</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -31730,7 +31731,7 @@
         <v>23578851</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -31760,7 +31761,7 @@
         <v>1152757709</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -31790,7 +31791,7 @@
         <v>1948835576</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -31820,7 +31821,7 @@
         <v>658941788</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -31850,7 +31851,7 @@
         <v>261463337</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -31880,7 +31881,7 @@
         <v>662763197</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -31910,7 +31911,7 @@
         <v>63374990</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -31940,7 +31941,7 @@
         <v>2139051665</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -31970,7 +31971,7 @@
         <v>17599228</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -32000,7 +32001,7 @@
         <v>1584965357</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -32030,7 +32031,7 @@
         <v>1125597711</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -32060,7 +32061,7 @@
         <v>737282354</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -32090,7 +32091,7 @@
         <v>523880488</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9">
       <c r="A367">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -32120,7 +32121,7 @@
         <v>176409116</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9">
       <c r="A368">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -32150,7 +32151,7 @@
         <v>1380579752</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9">
       <c r="A369">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -32180,7 +32181,7 @@
         <v>1990569676</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9">
       <c r="A370">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -32210,7 +32211,7 @@
         <v>2004291566</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9">
       <c r="A371">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -32240,7 +32241,7 @@
         <v>699862920</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9">
       <c r="A372">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -32270,7 +32271,7 @@
         <v>828161821</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9">
       <c r="A373">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -32300,7 +32301,7 @@
         <v>1074209340</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9">
       <c r="A374">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -32330,7 +32331,7 @@
         <v>341357051</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9">
       <c r="A375">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -32360,7 +32361,7 @@
         <v>1259135020</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9">
       <c r="A376">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -32390,7 +32391,7 @@
         <v>978423602</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9">
       <c r="A377">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -32420,7 +32421,7 @@
         <v>1083193735</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9">
       <c r="A378">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -32450,7 +32451,7 @@
         <v>1018228526</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9">
       <c r="A379">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -32480,7 +32481,7 @@
         <v>69653539</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9">
       <c r="A380">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -32510,7 +32511,7 @@
         <v>288442358</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9">
       <c r="A381">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -32540,7 +32541,7 @@
         <v>980119627</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9">
       <c r="A382">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -32570,7 +32571,7 @@
         <v>1670998499</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9">
       <c r="A383">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -32600,7 +32601,7 @@
         <v>1828120874</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9">
       <c r="A384">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -32630,7 +32631,7 @@
         <v>1178991689</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9">
       <c r="A385">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -32660,7 +32661,7 @@
         <v>481706154</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9">
       <c r="A386">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -32690,7 +32691,7 @@
         <v>21981088</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9">
       <c r="A387">
         <f t="shared" si="5"/>
         <v>386</v>
@@ -32720,7 +32721,7 @@
         <v>68958732</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9">
       <c r="A388">
         <f t="shared" ref="A388:A451" si="6">A387+1</f>
         <v>387</v>
@@ -32750,7 +32751,7 @@
         <v>1495722991</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9">
       <c r="A389">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -32780,7 +32781,7 @@
         <v>172737955</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9">
       <c r="A390">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -32810,7 +32811,7 @@
         <v>1956402588</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9">
       <c r="A391">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -32840,7 +32841,7 @@
         <v>1136177299</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9">
       <c r="A392">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -32870,7 +32871,7 @@
         <v>307275169</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9">
       <c r="A393">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -32900,7 +32901,7 @@
         <v>1823077995</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9">
       <c r="A394">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -32930,7 +32931,7 @@
         <v>175186569</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9">
       <c r="A395">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -32960,7 +32961,7 @@
         <v>160585146</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9">
       <c r="A396">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -32990,7 +32991,7 @@
         <v>1715088190</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9">
       <c r="A397">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -33020,7 +33021,7 @@
         <v>1961699296</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9">
       <c r="A398">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -33050,7 +33051,7 @@
         <v>2111119128</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9">
       <c r="A399">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -33080,7 +33081,7 @@
         <v>854368562</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9">
       <c r="A400">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -33110,7 +33111,7 @@
         <v>1296757692</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9">
       <c r="A401">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -33140,7 +33141,7 @@
         <v>1942479688</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9">
       <c r="A402">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -33170,7 +33171,7 @@
         <v>1209714522</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9">
       <c r="A403">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -33200,7 +33201,7 @@
         <v>1444285105</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9">
       <c r="A404">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -33230,7 +33231,7 @@
         <v>1092097694</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9">
       <c r="A405">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -33260,7 +33261,7 @@
         <v>343212149</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9">
       <c r="A406">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -33290,7 +33291,7 @@
         <v>225512401</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9">
       <c r="A407">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -33320,7 +33321,7 @@
         <v>2025770299</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9">
       <c r="A408">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -33350,7 +33351,7 @@
         <v>915675755</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9">
       <c r="A409">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -33380,7 +33381,7 @@
         <v>894599883</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9">
       <c r="A410">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -33410,7 +33411,7 @@
         <v>1007220934</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9">
       <c r="A411">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -33440,7 +33441,7 @@
         <v>1896132084</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9">
       <c r="A412">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -33470,7 +33471,7 @@
         <v>1782097955</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9">
       <c r="A413">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -33500,7 +33501,7 @@
         <v>765904976</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9">
       <c r="A414">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -33530,7 +33531,7 @@
         <v>547951514</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9">
       <c r="A415">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -33560,7 +33561,7 @@
         <v>1011217462</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9">
       <c r="A416">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -33590,7 +33591,7 @@
         <v>346301476</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9">
       <c r="A417">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -33620,7 +33621,7 @@
         <v>608223762</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9">
       <c r="A418">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -33650,7 +33651,7 @@
         <v>394608214</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9">
       <c r="A419">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -33680,7 +33681,7 @@
         <v>750750762</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9">
       <c r="A420">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -33710,7 +33711,7 @@
         <v>1401630809</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9">
       <c r="A421">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -33740,7 +33741,7 @@
         <v>1460882920</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9">
       <c r="A422">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -33770,7 +33771,7 @@
         <v>878700289</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9">
       <c r="A423">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -33800,7 +33801,7 @@
         <v>70716804</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9">
       <c r="A424">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -33830,7 +33831,7 @@
         <v>978868037</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9">
       <c r="A425">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -33860,7 +33861,7 @@
         <v>2110361839</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9">
       <c r="A426">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -33890,7 +33891,7 @@
         <v>1011514221</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9">
       <c r="A427">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -33920,7 +33921,7 @@
         <v>1038962695</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9">
       <c r="A428">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -33950,7 +33951,7 @@
         <v>656481108</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9">
       <c r="A429">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -33980,7 +33981,7 @@
         <v>1854487517</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9">
       <c r="A430">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -34010,7 +34011,7 @@
         <v>1941529308</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9">
       <c r="A431">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -34040,7 +34041,7 @@
         <v>269063391</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9">
       <c r="A432">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -34070,7 +34071,7 @@
         <v>1695335602</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9">
       <c r="A433">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -34100,7 +34101,7 @@
         <v>692434418</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9">
       <c r="A434">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -34130,7 +34131,7 @@
         <v>531380233</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9">
       <c r="A435">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -34160,7 +34161,7 @@
         <v>1670571805</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9">
       <c r="A436">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -34190,7 +34191,7 @@
         <v>1099125757</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9">
       <c r="A437">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -34220,7 +34221,7 @@
         <v>352266405</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9">
       <c r="A438">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -34250,7 +34251,7 @@
         <v>2076537703</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9">
       <c r="A439">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -34280,7 +34281,7 @@
         <v>1612426924</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9">
       <c r="A440">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -34310,7 +34311,7 @@
         <v>963170175</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9">
       <c r="A441">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -34340,7 +34341,7 @@
         <v>269400139</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9">
       <c r="A442">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -34370,7 +34371,7 @@
         <v>912608297</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9">
       <c r="A443">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -34400,7 +34401,7 @@
         <v>879440805</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9">
       <c r="A444">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -34430,7 +34431,7 @@
         <v>1779150981</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9">
       <c r="A445">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -34460,7 +34461,7 @@
         <v>628236839</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9">
       <c r="A446">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -34490,7 +34491,7 @@
         <v>1746944421</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9">
       <c r="A447">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -34520,7 +34521,7 @@
         <v>498461963</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9">
       <c r="A448">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -34550,7 +34551,7 @@
         <v>316505194</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9">
       <c r="A449">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -34580,7 +34581,7 @@
         <v>185801939</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9">
       <c r="A450">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -34610,7 +34611,7 @@
         <v>331966035</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9">
       <c r="A451">
         <f t="shared" si="6"/>
         <v>450</v>
@@ -34640,7 +34641,7 @@
         <v>190635339</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9">
       <c r="A452">
         <f t="shared" ref="A452:A515" si="7">A451+1</f>
         <v>451</v>
@@ -34670,7 +34671,7 @@
         <v>2110024896</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9">
       <c r="A453">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -34700,7 +34701,7 @@
         <v>1790964161</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9">
       <c r="A454">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -34730,7 +34731,7 @@
         <v>1603857575</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9">
       <c r="A455">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -34760,7 +34761,7 @@
         <v>819525881</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9">
       <c r="A456">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -34790,7 +34791,7 @@
         <v>1958853756</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9">
       <c r="A457">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -34820,7 +34821,7 @@
         <v>1530768582</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9">
       <c r="A458">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -34850,7 +34851,7 @@
         <v>773466614</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9">
       <c r="A459">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -34880,7 +34881,7 @@
         <v>934866207</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9">
       <c r="A460">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -34910,7 +34911,7 @@
         <v>1305979597</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9">
       <c r="A461">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -34940,7 +34941,7 @@
         <v>168730792</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9">
       <c r="A462">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -34970,7 +34971,7 @@
         <v>1180007104</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9">
       <c r="A463">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -35000,7 +35001,7 @@
         <v>367916883</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9">
       <c r="A464">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -35030,7 +35031,7 @@
         <v>973632868</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9">
       <c r="A465">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -35060,7 +35061,7 @@
         <v>22222336</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9">
       <c r="A466">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -35090,7 +35091,7 @@
         <v>1976130221</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9">
       <c r="A467">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -35120,7 +35121,7 @@
         <v>1986023492</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9">
       <c r="A468">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -35150,7 +35151,7 @@
         <v>758504723</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9">
       <c r="A469">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -35180,7 +35181,7 @@
         <v>725950869</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9">
       <c r="A470">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -35210,7 +35211,7 @@
         <v>1201656676</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9">
       <c r="A471">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -35240,7 +35241,7 @@
         <v>1307537144</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9">
       <c r="A472">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -35270,7 +35271,7 @@
         <v>576619457</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9">
       <c r="A473">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -35300,7 +35301,7 @@
         <v>1796998535</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9">
       <c r="A474">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -35330,7 +35331,7 @@
         <v>2091849984</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9">
       <c r="A475">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -35360,7 +35361,7 @@
         <v>1267896051</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9">
       <c r="A476">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -35390,7 +35391,7 @@
         <v>48699976</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9">
       <c r="A477">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -35420,7 +35421,7 @@
         <v>309227125</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9">
       <c r="A478">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -35450,7 +35451,7 @@
         <v>269864135</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9">
       <c r="A479">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -35480,7 +35481,7 @@
         <v>121054481</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9">
       <c r="A480">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -35510,7 +35511,7 @@
         <v>895648458</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9">
       <c r="A481">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -35540,7 +35541,7 @@
         <v>1450751783</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9">
       <c r="A482">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -35570,7 +35571,7 @@
         <v>255888843</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9">
       <c r="A483">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -35600,7 +35601,7 @@
         <v>1461523007</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9">
       <c r="A484">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -35630,7 +35631,7 @@
         <v>899224263</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9">
       <c r="A485">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -35660,7 +35661,7 @@
         <v>1419764302</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9">
       <c r="A486">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -35690,7 +35691,7 @@
         <v>1287821897</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9">
       <c r="A487">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -35720,7 +35721,7 @@
         <v>2082428413</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9">
       <c r="A488">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -35750,7 +35751,7 @@
         <v>1833342132</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9">
       <c r="A489">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -35780,7 +35781,7 @@
         <v>885845368</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9">
       <c r="A490">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -35810,7 +35811,7 @@
         <v>2046458972</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9">
       <c r="A491">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -35840,7 +35841,7 @@
         <v>737852052</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9">
       <c r="A492">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -35870,7 +35871,7 @@
         <v>1508860186</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9">
       <c r="A493">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -35900,7 +35901,7 @@
         <v>1926242326</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9">
       <c r="A494">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -35930,7 +35931,7 @@
         <v>1038794557</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9">
       <c r="A495">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -35960,7 +35961,7 @@
         <v>2125553036</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9">
       <c r="A496">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -35990,7 +35991,7 @@
         <v>779408207</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9">
       <c r="A497">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -36020,7 +36021,7 @@
         <v>2010971996</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9">
       <c r="A498">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -36050,7 +36051,7 @@
         <v>1308700286</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9">
       <c r="A499">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -36080,7 +36081,7 @@
         <v>798194228</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9">
       <c r="A500">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -36110,7 +36111,7 @@
         <v>2067530834</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9">
       <c r="A501">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -36140,7 +36141,7 @@
         <v>557834931</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9">
       <c r="A502">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -36170,7 +36171,7 @@
         <v>1765566162</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9">
       <c r="A503">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -36200,7 +36201,7 @@
         <v>2088934135</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9">
       <c r="A504">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -36230,7 +36231,7 @@
         <v>1653345789</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9">
       <c r="A505">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -36260,7 +36261,7 @@
         <v>1491767190</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9">
       <c r="A506">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -36290,7 +36291,7 @@
         <v>259583605</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9">
       <c r="A507">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -36320,7 +36321,7 @@
         <v>1282362178</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9">
       <c r="A508">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -36350,7 +36351,7 @@
         <v>515244354</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9">
       <c r="A509">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -36380,7 +36381,7 @@
         <v>1057792974</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9">
       <c r="A510">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -36410,7 +36411,7 @@
         <v>1456884152</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9">
       <c r="A511">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -36440,7 +36441,7 @@
         <v>243399570</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9">
       <c r="A512">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -36470,7 +36471,7 @@
         <v>2007709102</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9">
       <c r="A513">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -36500,7 +36501,7 @@
         <v>156332003</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9">
       <c r="A514">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -36530,7 +36531,7 @@
         <v>1099474140</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9">
       <c r="A515">
         <f t="shared" si="7"/>
         <v>514</v>
@@ -36560,7 +36561,7 @@
         <v>1912572192</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9">
       <c r="A516">
         <f t="shared" ref="A516:A579" si="8">A515+1</f>
         <v>515</v>
@@ -36590,7 +36591,7 @@
         <v>1065602648</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9">
       <c r="A517">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -36620,7 +36621,7 @@
         <v>1717572603</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9">
       <c r="A518">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -36650,7 +36651,7 @@
         <v>767555647</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9">
       <c r="A519">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -36680,7 +36681,7 @@
         <v>373491600</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9">
       <c r="A520">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -36710,7 +36711,7 @@
         <v>178621019</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9">
       <c r="A521">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -36740,7 +36741,7 @@
         <v>2048811474</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9">
       <c r="A522">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -36770,7 +36771,7 @@
         <v>1621647520</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9">
       <c r="A523">
         <f t="shared" si="8"/>
         <v>522</v>
@@ -36800,7 +36801,7 @@
         <v>1314904563</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9">
       <c r="A524">
         <f t="shared" si="8"/>
         <v>523</v>
@@ -36830,7 +36831,7 @@
         <v>1994262711</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9">
       <c r="A525">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -36860,7 +36861,7 @@
         <v>1796105048</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9">
       <c r="A526">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -36890,7 +36891,7 @@
         <v>2107399504</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9">
       <c r="A527">
         <f t="shared" si="8"/>
         <v>526</v>
@@ -36920,7 +36921,7 @@
         <v>615673757</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9">
       <c r="A528">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -36950,7 +36951,7 @@
         <v>1052622653</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9">
       <c r="A529">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -36980,7 +36981,7 @@
         <v>458644985</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9">
       <c r="A530">
         <f t="shared" si="8"/>
         <v>529</v>
@@ -37010,7 +37011,7 @@
         <v>1127453812</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9">
       <c r="A531">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -37040,7 +37041,7 @@
         <v>1868000803</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9">
       <c r="A532">
         <f t="shared" si="8"/>
         <v>531</v>
@@ -37070,7 +37071,7 @@
         <v>1426060528</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9">
       <c r="A533">
         <f t="shared" si="8"/>
         <v>532</v>
@@ -37100,7 +37101,7 @@
         <v>1881793576</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9">
       <c r="A534">
         <f t="shared" si="8"/>
         <v>533</v>
@@ -37130,7 +37131,7 @@
         <v>1312962463</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9">
       <c r="A535">
         <f t="shared" si="8"/>
         <v>534</v>
@@ -37160,7 +37161,7 @@
         <v>1565642716</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9">
       <c r="A536">
         <f t="shared" si="8"/>
         <v>535</v>
@@ -37190,7 +37191,7 @@
         <v>640001121</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9">
       <c r="A537">
         <f t="shared" si="8"/>
         <v>536</v>
@@ -37220,7 +37221,7 @@
         <v>1900736471</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9">
       <c r="A538">
         <f t="shared" si="8"/>
         <v>537</v>
@@ -37250,7 +37251,7 @@
         <v>1858618972</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9">
       <c r="A539">
         <f t="shared" si="8"/>
         <v>538</v>
@@ -37280,7 +37281,7 @@
         <v>511933142</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9">
       <c r="A540">
         <f t="shared" si="8"/>
         <v>539</v>
@@ -37310,7 +37311,7 @@
         <v>1240827712</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9">
       <c r="A541">
         <f t="shared" si="8"/>
         <v>540</v>
@@ -37340,7 +37341,7 @@
         <v>377659567</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9">
       <c r="A542">
         <f t="shared" si="8"/>
         <v>541</v>
@@ -37370,7 +37371,7 @@
         <v>1510165684</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9">
       <c r="A543">
         <f t="shared" si="8"/>
         <v>542</v>
@@ -37400,7 +37401,7 @@
         <v>245427095</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9">
       <c r="A544">
         <f t="shared" si="8"/>
         <v>543</v>
@@ -37430,7 +37431,7 @@
         <v>1724583425</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9">
       <c r="A545">
         <f t="shared" si="8"/>
         <v>544</v>
@@ -37460,7 +37461,7 @@
         <v>486840416</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9">
       <c r="A546">
         <f t="shared" si="8"/>
         <v>545</v>
@@ -37490,7 +37491,7 @@
         <v>414176642</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9">
       <c r="A547">
         <f t="shared" si="8"/>
         <v>546</v>
@@ -37520,7 +37521,7 @@
         <v>1072322167</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9">
       <c r="A548">
         <f t="shared" si="8"/>
         <v>547</v>
@@ -37550,7 +37551,7 @@
         <v>835895145</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9">
       <c r="A549">
         <f t="shared" si="8"/>
         <v>548</v>
@@ -37580,7 +37581,7 @@
         <v>51683341</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9">
       <c r="A550">
         <f t="shared" si="8"/>
         <v>549</v>
@@ -37610,7 +37611,7 @@
         <v>1058518799</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9">
       <c r="A551">
         <f t="shared" si="8"/>
         <v>550</v>
@@ -37640,7 +37641,7 @@
         <v>770923045</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9">
       <c r="A552">
         <f t="shared" si="8"/>
         <v>551</v>
@@ -37670,7 +37671,7 @@
         <v>1134774964</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9">
       <c r="A553">
         <f t="shared" si="8"/>
         <v>552</v>
@@ -37700,7 +37701,7 @@
         <v>360550941</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9">
       <c r="A554">
         <f t="shared" si="8"/>
         <v>553</v>
@@ -37730,7 +37731,7 @@
         <v>1728297200</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9">
       <c r="A555">
         <f t="shared" si="8"/>
         <v>554</v>
@@ -37760,7 +37761,7 @@
         <v>627231078</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9">
       <c r="A556">
         <f t="shared" si="8"/>
         <v>555</v>
@@ -37790,7 +37791,7 @@
         <v>2022988470</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9">
       <c r="A557">
         <f t="shared" si="8"/>
         <v>556</v>
@@ -37820,7 +37821,7 @@
         <v>1406115986</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9">
       <c r="A558">
         <f t="shared" si="8"/>
         <v>557</v>
@@ -37850,7 +37851,7 @@
         <v>1681325114</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9">
       <c r="A559">
         <f t="shared" si="8"/>
         <v>558</v>
@@ -37880,7 +37881,7 @@
         <v>1441363772</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9">
       <c r="A560">
         <f t="shared" si="8"/>
         <v>559</v>
@@ -37910,7 +37911,7 @@
         <v>1385377844</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9">
       <c r="A561">
         <f t="shared" si="8"/>
         <v>560</v>
@@ -37940,7 +37941,7 @@
         <v>1027723334</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9">
       <c r="A562">
         <f t="shared" si="8"/>
         <v>561</v>
@@ -37970,7 +37971,7 @@
         <v>735101717</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9">
       <c r="A563">
         <f t="shared" si="8"/>
         <v>562</v>
@@ -38000,7 +38001,7 @@
         <v>381136428</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9">
       <c r="A564">
         <f t="shared" si="8"/>
         <v>563</v>
@@ -38030,7 +38031,7 @@
         <v>1963710042</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9">
       <c r="A565">
         <f t="shared" si="8"/>
         <v>564</v>
@@ -38060,7 +38061,7 @@
         <v>1545988798</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9">
       <c r="A566">
         <f t="shared" si="8"/>
         <v>565</v>
@@ -38090,7 +38091,7 @@
         <v>1029082933</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9">
       <c r="A567">
         <f t="shared" si="8"/>
         <v>566</v>
@@ -38120,7 +38121,7 @@
         <v>2111045640</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9">
       <c r="A568">
         <f t="shared" si="8"/>
         <v>567</v>
@@ -38150,7 +38151,7 @@
         <v>1766739393</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9">
       <c r="A569">
         <f t="shared" si="8"/>
         <v>568</v>
@@ -38180,7 +38181,7 @@
         <v>332591082</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9">
       <c r="A570">
         <f t="shared" si="8"/>
         <v>569</v>
@@ -38210,7 +38211,7 @@
         <v>2105865680</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9">
       <c r="A571">
         <f t="shared" si="8"/>
         <v>570</v>
@@ -38240,7 +38241,7 @@
         <v>606497553</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9">
       <c r="A572">
         <f t="shared" si="8"/>
         <v>571</v>
@@ -38270,7 +38271,7 @@
         <v>1446984609</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9">
       <c r="A573">
         <f t="shared" si="8"/>
         <v>572</v>
@@ -38300,7 +38301,7 @@
         <v>1365504835</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9">
       <c r="A574">
         <f t="shared" si="8"/>
         <v>573</v>
@@ -38330,7 +38331,7 @@
         <v>2029510003</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9">
       <c r="A575">
         <f t="shared" si="8"/>
         <v>574</v>
@@ -38360,7 +38361,7 @@
         <v>1491855120</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9">
       <c r="A576">
         <f t="shared" si="8"/>
         <v>575</v>
@@ -38390,7 +38391,7 @@
         <v>1737423115</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9">
       <c r="A577">
         <f t="shared" si="8"/>
         <v>576</v>
@@ -38420,7 +38421,7 @@
         <v>1535145546</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9">
       <c r="A578">
         <f t="shared" si="8"/>
         <v>577</v>
@@ -38450,7 +38451,7 @@
         <v>1322656564</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9">
       <c r="A579">
         <f t="shared" si="8"/>
         <v>578</v>
@@ -38480,7 +38481,7 @@
         <v>1285641051</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9">
       <c r="A580">
         <f t="shared" ref="A580:A643" si="9">A579+1</f>
         <v>579</v>
@@ -38510,7 +38511,7 @@
         <v>1936171690</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9">
       <c r="A581">
         <f t="shared" si="9"/>
         <v>580</v>
@@ -38540,7 +38541,7 @@
         <v>417890839</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9">
       <c r="A582">
         <f t="shared" si="9"/>
         <v>581</v>
@@ -38570,7 +38571,7 @@
         <v>1219805383</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9">
       <c r="A583">
         <f t="shared" si="9"/>
         <v>582</v>
@@ -38600,7 +38601,7 @@
         <v>1390177819</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9">
       <c r="A584">
         <f t="shared" si="9"/>
         <v>583</v>
@@ -38630,7 +38631,7 @@
         <v>96524573</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9">
       <c r="A585">
         <f t="shared" si="9"/>
         <v>584</v>
@@ -38660,7 +38661,7 @@
         <v>938344926</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9">
       <c r="A586">
         <f t="shared" si="9"/>
         <v>585</v>
@@ -38690,7 +38691,7 @@
         <v>1790751361</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9">
       <c r="A587">
         <f t="shared" si="9"/>
         <v>586</v>
@@ -38720,7 +38721,7 @@
         <v>174811622</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9">
       <c r="A588">
         <f t="shared" si="9"/>
         <v>587</v>
@@ -38750,7 +38751,7 @@
         <v>301301858</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9">
       <c r="A589">
         <f t="shared" si="9"/>
         <v>588</v>
@@ -38780,7 +38781,7 @@
         <v>213887780</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9">
       <c r="A590">
         <f t="shared" si="9"/>
         <v>589</v>
@@ -38810,7 +38811,7 @@
         <v>2071777029</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9">
       <c r="A591">
         <f t="shared" si="9"/>
         <v>590</v>
@@ -38840,7 +38841,7 @@
         <v>1056673945</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9">
       <c r="A592">
         <f t="shared" si="9"/>
         <v>591</v>
@@ -38870,7 +38871,7 @@
         <v>1976716572</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9">
       <c r="A593">
         <f t="shared" si="9"/>
         <v>592</v>
@@ -38900,7 +38901,7 @@
         <v>1103406514</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9">
       <c r="A594">
         <f t="shared" si="9"/>
         <v>593</v>
@@ -38930,7 +38931,7 @@
         <v>1431988953</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9">
       <c r="A595">
         <f t="shared" si="9"/>
         <v>594</v>
@@ -38960,7 +38961,7 @@
         <v>589101142</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9">
       <c r="A596">
         <f t="shared" si="9"/>
         <v>595</v>
@@ -38990,7 +38991,7 @@
         <v>1123280924</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9">
       <c r="A597">
         <f t="shared" si="9"/>
         <v>596</v>
@@ -39020,7 +39021,7 @@
         <v>453748891</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9">
       <c r="A598">
         <f t="shared" si="9"/>
         <v>597</v>
@@ -39050,7 +39051,7 @@
         <v>443180540</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9">
       <c r="A599">
         <f t="shared" si="9"/>
         <v>598</v>
@@ -39080,7 +39081,7 @@
         <v>1062047984</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9">
       <c r="A600">
         <f t="shared" si="9"/>
         <v>599</v>
@@ -39110,7 +39111,7 @@
         <v>2103876871</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9">
       <c r="A601">
         <f t="shared" si="9"/>
         <v>600</v>
@@ -39140,7 +39141,7 @@
         <v>1540323042</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9">
       <c r="A602">
         <f t="shared" si="9"/>
         <v>601</v>
@@ -39170,7 +39171,7 @@
         <v>294002309</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9">
       <c r="A603">
         <f t="shared" si="9"/>
         <v>602</v>
@@ -39200,7 +39201,7 @@
         <v>2084419263</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9">
       <c r="A604">
         <f t="shared" si="9"/>
         <v>603</v>
@@ -39230,7 +39231,7 @@
         <v>933819730</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9">
       <c r="A605">
         <f t="shared" si="9"/>
         <v>604</v>
@@ -39260,7 +39261,7 @@
         <v>897709834</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9">
       <c r="A606">
         <f t="shared" si="9"/>
         <v>605</v>
@@ -39290,7 +39291,7 @@
         <v>1736559863</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9">
       <c r="A607">
         <f t="shared" si="9"/>
         <v>606</v>
@@ -39320,7 +39321,7 @@
         <v>2058854711</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9">
       <c r="A608">
         <f t="shared" si="9"/>
         <v>607</v>
@@ -39350,7 +39351,7 @@
         <v>767123666</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9">
       <c r="A609">
         <f t="shared" si="9"/>
         <v>608</v>
@@ -39380,7 +39381,7 @@
         <v>1703121521</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9">
       <c r="A610">
         <f t="shared" si="9"/>
         <v>609</v>
@@ -39410,7 +39411,7 @@
         <v>553872584</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9">
       <c r="A611">
         <f t="shared" si="9"/>
         <v>610</v>
@@ -39440,7 +39441,7 @@
         <v>1742393190</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9">
       <c r="A612">
         <f t="shared" si="9"/>
         <v>611</v>
@@ -39470,7 +39471,7 @@
         <v>1315333838</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9">
       <c r="A613">
         <f t="shared" si="9"/>
         <v>612</v>
@@ -39500,7 +39501,7 @@
         <v>619153048</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9">
       <c r="A614">
         <f t="shared" si="9"/>
         <v>613</v>
@@ -39530,7 +39531,7 @@
         <v>1547008021</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9">
       <c r="A615">
         <f t="shared" si="9"/>
         <v>614</v>
@@ -39560,7 +39561,7 @@
         <v>979294718</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9">
       <c r="A616">
         <f t="shared" si="9"/>
         <v>615</v>
@@ -39590,7 +39591,7 @@
         <v>691654818</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9">
       <c r="A617">
         <f t="shared" si="9"/>
         <v>616</v>
@@ -39620,7 +39621,7 @@
         <v>313544915</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9">
       <c r="A618">
         <f t="shared" si="9"/>
         <v>617</v>
@@ -39650,7 +39651,7 @@
         <v>1972000314</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9">
       <c r="A619">
         <f t="shared" si="9"/>
         <v>618</v>
@@ -39680,7 +39681,7 @@
         <v>1294153247</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9">
       <c r="A620">
         <f t="shared" si="9"/>
         <v>619</v>
@@ -39710,7 +39711,7 @@
         <v>1119245513</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9">
       <c r="A621">
         <f t="shared" si="9"/>
         <v>620</v>
@@ -39740,7 +39741,7 @@
         <v>1350072918</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9">
       <c r="A622">
         <f t="shared" si="9"/>
         <v>621</v>
@@ -39770,7 +39771,7 @@
         <v>363318624</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9">
       <c r="A623">
         <f t="shared" si="9"/>
         <v>622</v>
@@ -39800,7 +39801,7 @@
         <v>1000105147</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9">
       <c r="A624">
         <f t="shared" si="9"/>
         <v>623</v>
@@ -39830,7 +39831,7 @@
         <v>412700560</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9">
       <c r="A625">
         <f t="shared" si="9"/>
         <v>624</v>
@@ -39860,7 +39861,7 @@
         <v>2033615757</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9">
       <c r="A626">
         <f t="shared" si="9"/>
         <v>625</v>
@@ -39890,7 +39891,7 @@
         <v>1777785894</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9">
       <c r="A627">
         <f t="shared" si="9"/>
         <v>626</v>
@@ -39920,7 +39921,7 @@
         <v>1307539747</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9">
       <c r="A628">
         <f t="shared" si="9"/>
         <v>627</v>
@@ -39950,7 +39951,7 @@
         <v>620368078</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9">
       <c r="A629">
         <f t="shared" si="9"/>
         <v>628</v>
@@ -39980,7 +39981,7 @@
         <v>493180761</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9">
       <c r="A630">
         <f t="shared" si="9"/>
         <v>629</v>
@@ -40010,7 +40011,7 @@
         <v>1749656354</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9">
       <c r="A631">
         <f t="shared" si="9"/>
         <v>630</v>
@@ -40040,7 +40041,7 @@
         <v>980763307</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9">
       <c r="A632">
         <f t="shared" si="9"/>
         <v>631</v>
@@ -40070,7 +40071,7 @@
         <v>1751910024</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9">
       <c r="A633">
         <f t="shared" si="9"/>
         <v>632</v>
@@ -40100,7 +40101,7 @@
         <v>203489351</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9">
       <c r="A634">
         <f t="shared" si="9"/>
         <v>633</v>
@@ -40130,7 +40131,7 @@
         <v>1251556233</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9">
       <c r="A635">
         <f t="shared" si="9"/>
         <v>634</v>
@@ -40160,7 +40161,7 @@
         <v>303285666</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9">
       <c r="A636">
         <f t="shared" si="9"/>
         <v>635</v>
@@ -40190,7 +40191,7 @@
         <v>1343494131</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9">
       <c r="A637">
         <f t="shared" si="9"/>
         <v>636</v>
@@ -40220,7 +40221,7 @@
         <v>1462795159</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9">
       <c r="A638">
         <f t="shared" si="9"/>
         <v>637</v>
@@ -40250,7 +40251,7 @@
         <v>805446457</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9">
       <c r="A639">
         <f t="shared" si="9"/>
         <v>638</v>
@@ -40280,7 +40281,7 @@
         <v>1549175758</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9">
       <c r="A640">
         <f t="shared" si="9"/>
         <v>639</v>
@@ -40310,7 +40311,7 @@
         <v>905228478</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9">
       <c r="A641">
         <f t="shared" si="9"/>
         <v>640</v>
@@ -40340,7 +40341,7 @@
         <v>1400874398</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9">
       <c r="A642">
         <f t="shared" si="9"/>
         <v>641</v>
@@ -40370,7 +40371,7 @@
         <v>1632785125</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9">
       <c r="A643">
         <f t="shared" si="9"/>
         <v>642</v>
@@ -40400,7 +40401,7 @@
         <v>1673554509</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9">
       <c r="A644">
         <f t="shared" ref="A644:A707" si="10">A643+1</f>
         <v>643</v>
@@ -40430,7 +40431,7 @@
         <v>1837308004</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9">
       <c r="A645">
         <f t="shared" si="10"/>
         <v>644</v>
@@ -40460,7 +40461,7 @@
         <v>968263015</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9">
       <c r="A646">
         <f t="shared" si="10"/>
         <v>645</v>
@@ -40490,7 +40491,7 @@
         <v>2112899786</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9">
       <c r="A647">
         <f t="shared" si="10"/>
         <v>646</v>
@@ -40520,7 +40521,7 @@
         <v>717116510</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9">
       <c r="A648">
         <f t="shared" si="10"/>
         <v>647</v>
@@ -40550,7 +40551,7 @@
         <v>898956606</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9">
       <c r="A649">
         <f t="shared" si="10"/>
         <v>648</v>
@@ -40580,7 +40581,7 @@
         <v>1216220397</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9">
       <c r="A650">
         <f t="shared" si="10"/>
         <v>649</v>
@@ -40610,7 +40611,7 @@
         <v>1266860233</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9">
       <c r="A651">
         <f t="shared" si="10"/>
         <v>650</v>
@@ -40640,7 +40641,7 @@
         <v>1967059673</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9">
       <c r="A652">
         <f t="shared" si="10"/>
         <v>651</v>
@@ -40670,7 +40671,7 @@
         <v>2008662193</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9">
       <c r="A653">
         <f t="shared" si="10"/>
         <v>652</v>
@@ -40700,7 +40701,7 @@
         <v>1142546911</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9">
       <c r="A654">
         <f t="shared" si="10"/>
         <v>653</v>
@@ -40730,7 +40731,7 @@
         <v>2134645350</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9">
       <c r="A655">
         <f t="shared" si="10"/>
         <v>654</v>
@@ -40760,7 +40761,7 @@
         <v>1122590668</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9">
       <c r="A656">
         <f t="shared" si="10"/>
         <v>655</v>
@@ -40790,7 +40791,7 @@
         <v>1737518181</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9">
       <c r="A657">
         <f t="shared" si="10"/>
         <v>656</v>
@@ -40820,7 +40821,7 @@
         <v>985436161</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9">
       <c r="A658">
         <f t="shared" si="10"/>
         <v>657</v>
@@ -40850,7 +40851,7 @@
         <v>831672263</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9">
       <c r="A659">
         <f t="shared" si="10"/>
         <v>658</v>
@@ -40880,7 +40881,7 @@
         <v>2092149565</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9">
       <c r="A660">
         <f t="shared" si="10"/>
         <v>659</v>
@@ -40910,7 +40911,7 @@
         <v>2007986624</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9">
       <c r="A661">
         <f t="shared" si="10"/>
         <v>660</v>
@@ -40940,7 +40941,7 @@
         <v>525676963</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9">
       <c r="A662">
         <f t="shared" si="10"/>
         <v>661</v>
@@ -40970,7 +40971,7 @@
         <v>304993383</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9">
       <c r="A663">
         <f t="shared" si="10"/>
         <v>662</v>
@@ -41000,7 +41001,7 @@
         <v>2127806339</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9">
       <c r="A664">
         <f t="shared" si="10"/>
         <v>663</v>
@@ -41030,7 +41031,7 @@
         <v>2143449729</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9">
       <c r="A665">
         <f t="shared" si="10"/>
         <v>664</v>
@@ -41060,7 +41061,7 @@
         <v>921416878</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9">
       <c r="A666">
         <f t="shared" si="10"/>
         <v>665</v>
@@ -41090,7 +41091,7 @@
         <v>748890029</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9">
       <c r="A667">
         <f t="shared" si="10"/>
         <v>666</v>
@@ -41120,7 +41121,7 @@
         <v>193062336</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9">
       <c r="A668">
         <f t="shared" si="10"/>
         <v>667</v>
@@ -41150,7 +41151,7 @@
         <v>2098374182</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9">
       <c r="A669">
         <f t="shared" si="10"/>
         <v>668</v>
@@ -41180,7 +41181,7 @@
         <v>1398425840</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9">
       <c r="A670">
         <f t="shared" si="10"/>
         <v>669</v>
@@ -41210,7 +41211,7 @@
         <v>1282060112</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9">
       <c r="A671">
         <f t="shared" si="10"/>
         <v>670</v>
@@ -41240,7 +41241,7 @@
         <v>1880872033</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9">
       <c r="A672">
         <f t="shared" si="10"/>
         <v>671</v>
@@ -41270,7 +41271,7 @@
         <v>856974791</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9">
       <c r="A673">
         <f t="shared" si="10"/>
         <v>672</v>
@@ -41300,7 +41301,7 @@
         <v>2491908</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9">
       <c r="A674">
         <f t="shared" si="10"/>
         <v>673</v>
@@ -41330,7 +41331,7 @@
         <v>1079308463</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9">
       <c r="A675">
         <f t="shared" si="10"/>
         <v>674</v>
@@ -41360,7 +41361,7 @@
         <v>142971432</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9">
       <c r="A676">
         <f t="shared" si="10"/>
         <v>675</v>
@@ -41390,7 +41391,7 @@
         <v>2034140278</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9">
       <c r="A677">
         <f t="shared" si="10"/>
         <v>676</v>
@@ -41420,7 +41421,7 @@
         <v>2003475753</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9">
       <c r="A678">
         <f t="shared" si="10"/>
         <v>677</v>
@@ -41450,7 +41451,7 @@
         <v>2020879358</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9">
       <c r="A679">
         <f t="shared" si="10"/>
         <v>678</v>
@@ -41480,7 +41481,7 @@
         <v>318008954</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9">
       <c r="A680">
         <f t="shared" si="10"/>
         <v>679</v>
@@ -41510,7 +41511,7 @@
         <v>1837176142</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9">
       <c r="A681">
         <f t="shared" si="10"/>
         <v>680</v>
@@ -41540,7 +41541,7 @@
         <v>899542028</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9">
       <c r="A682">
         <f t="shared" si="10"/>
         <v>681</v>
@@ -41570,7 +41571,7 @@
         <v>317989716</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9">
       <c r="A683">
         <f t="shared" si="10"/>
         <v>682</v>
@@ -41600,7 +41601,7 @@
         <v>1513843076</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9">
       <c r="A684">
         <f t="shared" si="10"/>
         <v>683</v>
@@ -41630,7 +41631,7 @@
         <v>1921812323</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9">
       <c r="A685">
         <f t="shared" si="10"/>
         <v>684</v>
@@ -41660,7 +41661,7 @@
         <v>1745661781</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9">
       <c r="A686">
         <f t="shared" si="10"/>
         <v>685</v>
@@ -41690,7 +41691,7 @@
         <v>415967953</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9">
       <c r="A687">
         <f t="shared" si="10"/>
         <v>686</v>
@@ -41720,7 +41721,7 @@
         <v>1114115086</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9">
       <c r="A688">
         <f t="shared" si="10"/>
         <v>687</v>
@@ -41750,7 +41751,7 @@
         <v>1022332209</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9">
       <c r="A689">
         <f t="shared" si="10"/>
         <v>688</v>
@@ -41780,7 +41781,7 @@
         <v>320777016</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9">
       <c r="A690">
         <f t="shared" si="10"/>
         <v>689</v>
@@ -41810,7 +41811,7 @@
         <v>1115353942</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9">
       <c r="A691">
         <f t="shared" si="10"/>
         <v>690</v>
@@ -41840,7 +41841,7 @@
         <v>368948531</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9">
       <c r="A692">
         <f t="shared" si="10"/>
         <v>691</v>
@@ -41870,7 +41871,7 @@
         <v>1132671628</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9">
       <c r="A693">
         <f t="shared" si="10"/>
         <v>692</v>
@@ -41900,7 +41901,7 @@
         <v>1517004788</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9">
       <c r="A694">
         <f t="shared" si="10"/>
         <v>693</v>
@@ -41930,7 +41931,7 @@
         <v>1373614732</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9">
       <c r="A695">
         <f t="shared" si="10"/>
         <v>694</v>
@@ -41960,7 +41961,7 @@
         <v>893595474</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9">
       <c r="A696">
         <f t="shared" si="10"/>
         <v>695</v>
@@ -41990,7 +41991,7 @@
         <v>1305988047</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9">
       <c r="A697">
         <f t="shared" si="10"/>
         <v>696</v>
@@ -42020,7 +42021,7 @@
         <v>310749942</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9">
       <c r="A698">
         <f t="shared" si="10"/>
         <v>697</v>
@@ -42050,7 +42051,7 @@
         <v>94045690</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9">
       <c r="A699">
         <f t="shared" si="10"/>
         <v>698</v>
@@ -42080,7 +42081,7 @@
         <v>77947638</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9">
       <c r="A700">
         <f t="shared" si="10"/>
         <v>699</v>
@@ -42110,7 +42111,7 @@
         <v>100927196</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9">
       <c r="A701">
         <f t="shared" si="10"/>
         <v>700</v>
@@ -42140,7 +42141,7 @@
         <v>1918785689</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9">
       <c r="A702">
         <f t="shared" si="10"/>
         <v>701</v>
@@ -42170,7 +42171,7 @@
         <v>269148024</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9">
       <c r="A703">
         <f t="shared" si="10"/>
         <v>702</v>
@@ -42200,7 +42201,7 @@
         <v>970278786</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9">
       <c r="A704">
         <f t="shared" si="10"/>
         <v>703</v>
@@ -42230,7 +42231,7 @@
         <v>1632224631</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9">
       <c r="A705">
         <f t="shared" si="10"/>
         <v>704</v>
@@ -42260,7 +42261,7 @@
         <v>843266439</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9">
       <c r="A706">
         <f t="shared" si="10"/>
         <v>705</v>
@@ -42290,7 +42291,7 @@
         <v>1534453720</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9">
       <c r="A707">
         <f t="shared" si="10"/>
         <v>706</v>
@@ -42320,7 +42321,7 @@
         <v>432555217</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9">
       <c r="A708">
         <f t="shared" ref="A708:A771" si="11">A707+1</f>
         <v>707</v>
@@ -42350,7 +42351,7 @@
         <v>723387024</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9">
       <c r="A709">
         <f t="shared" si="11"/>
         <v>708</v>
@@ -42380,7 +42381,7 @@
         <v>1060786701</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9">
       <c r="A710">
         <f t="shared" si="11"/>
         <v>709</v>
@@ -42410,7 +42411,7 @@
         <v>232846313</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9">
       <c r="A711">
         <f t="shared" si="11"/>
         <v>710</v>
@@ -42440,7 +42441,7 @@
         <v>732777757</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9">
       <c r="A712">
         <f t="shared" si="11"/>
         <v>711</v>
@@ -42470,7 +42471,7 @@
         <v>2124530001</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9">
       <c r="A713">
         <f t="shared" si="11"/>
         <v>712</v>
@@ -42500,7 +42501,7 @@
         <v>765128138</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9">
       <c r="A714">
         <f t="shared" si="11"/>
         <v>713</v>
@@ -42530,7 +42531,7 @@
         <v>376537130</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9">
       <c r="A715">
         <f t="shared" si="11"/>
         <v>714</v>
@@ -42560,7 +42561,7 @@
         <v>1972719848</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9">
       <c r="A716">
         <f t="shared" si="11"/>
         <v>715</v>
@@ -42590,7 +42591,7 @@
         <v>502459303</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9">
       <c r="A717">
         <f t="shared" si="11"/>
         <v>716</v>
@@ -42620,7 +42621,7 @@
         <v>927805517</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9">
       <c r="A718">
         <f t="shared" si="11"/>
         <v>717</v>
@@ -42650,7 +42651,7 @@
         <v>748563352</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9">
       <c r="A719">
         <f t="shared" si="11"/>
         <v>718</v>
@@ -42680,7 +42681,7 @@
         <v>1145052938</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9">
       <c r="A720">
         <f t="shared" si="11"/>
         <v>719</v>
@@ -42710,7 +42711,7 @@
         <v>1303768199</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9">
       <c r="A721">
         <f t="shared" si="11"/>
         <v>720</v>
@@ -42740,7 +42741,7 @@
         <v>1656470252</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9">
       <c r="A722">
         <f t="shared" si="11"/>
         <v>721</v>
@@ -42770,7 +42771,7 @@
         <v>317525656</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9">
       <c r="A723">
         <f t="shared" si="11"/>
         <v>722</v>
@@ -42800,7 +42801,7 @@
         <v>156837597</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9">
       <c r="A724">
         <f t="shared" si="11"/>
         <v>723</v>
@@ -42830,7 +42831,7 @@
         <v>1007057910</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9">
       <c r="A725">
         <f t="shared" si="11"/>
         <v>724</v>
@@ -42860,7 +42861,7 @@
         <v>1303671363</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9">
       <c r="A726">
         <f t="shared" si="11"/>
         <v>725</v>
@@ -42890,7 +42891,7 @@
         <v>28947600</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9">
       <c r="A727">
         <f t="shared" si="11"/>
         <v>726</v>
@@ -42920,7 +42921,7 @@
         <v>1191008978</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9">
       <c r="A728">
         <f t="shared" si="11"/>
         <v>727</v>
@@ -42950,7 +42951,7 @@
         <v>592819559</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9">
       <c r="A729">
         <f t="shared" si="11"/>
         <v>728</v>
@@ -42980,7 +42981,7 @@
         <v>1341689680</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9">
       <c r="A730">
         <f t="shared" si="11"/>
         <v>729</v>
@@ -43010,7 +43011,7 @@
         <v>1200158260</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9">
       <c r="A731">
         <f t="shared" si="11"/>
         <v>730</v>
@@ -43040,7 +43041,7 @@
         <v>1893463196</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9">
       <c r="A732">
         <f t="shared" si="11"/>
         <v>731</v>
@@ -43070,7 +43071,7 @@
         <v>2023253926</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9">
       <c r="A733">
         <f t="shared" si="11"/>
         <v>732</v>
@@ -43100,7 +43101,7 @@
         <v>1572667684</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9">
       <c r="A734">
         <f t="shared" si="11"/>
         <v>733</v>
@@ -43130,7 +43131,7 @@
         <v>597037712</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9">
       <c r="A735">
         <f t="shared" si="11"/>
         <v>734</v>
@@ -43160,7 +43161,7 @@
         <v>1369226800</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9">
       <c r="A736">
         <f t="shared" si="11"/>
         <v>735</v>
@@ -43190,7 +43191,7 @@
         <v>160066348</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9">
       <c r="A737">
         <f t="shared" si="11"/>
         <v>736</v>
@@ -43220,7 +43221,7 @@
         <v>1585584792</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9">
       <c r="A738">
         <f t="shared" si="11"/>
         <v>737</v>
@@ -43250,7 +43251,7 @@
         <v>799023521</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9">
       <c r="A739">
         <f t="shared" si="11"/>
         <v>738</v>
@@ -43280,7 +43281,7 @@
         <v>973072756</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9">
       <c r="A740">
         <f t="shared" si="11"/>
         <v>739</v>
@@ -43310,7 +43311,7 @@
         <v>1345838187</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9">
       <c r="A741">
         <f t="shared" si="11"/>
         <v>740</v>
@@ -43340,7 +43341,7 @@
         <v>57155058</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9">
       <c r="A742">
         <f t="shared" si="11"/>
         <v>741</v>
@@ -43370,7 +43371,7 @@
         <v>679869597</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9">
       <c r="A743">
         <f t="shared" si="11"/>
         <v>742</v>
@@ -43400,7 +43401,7 @@
         <v>1955314739</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9">
       <c r="A744">
         <f t="shared" si="11"/>
         <v>743</v>
@@ -43430,7 +43431,7 @@
         <v>32568332</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9">
       <c r="A745">
         <f t="shared" si="11"/>
         <v>744</v>
@@ -43460,7 +43461,7 @@
         <v>1915109586</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9">
       <c r="A746">
         <f t="shared" si="11"/>
         <v>745</v>
@@ -43490,7 +43491,7 @@
         <v>761910666</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9">
       <c r="A747">
         <f t="shared" si="11"/>
         <v>746</v>
@@ -43520,7 +43521,7 @@
         <v>2135060048</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9">
       <c r="A748">
         <f t="shared" si="11"/>
         <v>747</v>
@@ -43550,7 +43551,7 @@
         <v>1649969013</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9">
       <c r="A749">
         <f t="shared" si="11"/>
         <v>748</v>
@@ -43580,7 +43581,7 @@
         <v>572867780</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9">
       <c r="A750">
         <f t="shared" si="11"/>
         <v>749</v>
@@ -43610,7 +43611,7 @@
         <v>1019588959</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9">
       <c r="A751">
         <f t="shared" si="11"/>
         <v>750</v>
@@ -43640,7 +43641,7 @@
         <v>1459614500</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9">
       <c r="A752">
         <f t="shared" si="11"/>
         <v>751</v>
@@ -43670,7 +43671,7 @@
         <v>1035201819</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9">
       <c r="A753">
         <f t="shared" si="11"/>
         <v>752</v>
@@ -43700,7 +43701,7 @@
         <v>1871947586</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9">
       <c r="A754">
         <f t="shared" si="11"/>
         <v>753</v>
@@ -43730,7 +43731,7 @@
         <v>1187649352</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9">
       <c r="A755">
         <f t="shared" si="11"/>
         <v>754</v>
@@ -43760,7 +43761,7 @@
         <v>2109643846</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9">
       <c r="A756">
         <f t="shared" si="11"/>
         <v>755</v>
@@ -43790,7 +43791,7 @@
         <v>1829107752</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9">
       <c r="A757">
         <f t="shared" si="11"/>
         <v>756</v>
@@ -43820,7 +43821,7 @@
         <v>585581059</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9">
       <c r="A758">
         <f t="shared" si="11"/>
         <v>757</v>
@@ -43850,7 +43851,7 @@
         <v>2090788059</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9">
       <c r="A759">
         <f t="shared" si="11"/>
         <v>758</v>
@@ -43880,7 +43881,7 @@
         <v>599991752</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9">
       <c r="A760">
         <f t="shared" si="11"/>
         <v>759</v>
@@ -43910,7 +43911,7 @@
         <v>1625653199</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9">
       <c r="A761">
         <f t="shared" si="11"/>
         <v>760</v>
@@ -43940,7 +43941,7 @@
         <v>2066358459</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9">
       <c r="A762">
         <f t="shared" si="11"/>
         <v>761</v>
@@ -43970,7 +43971,7 @@
         <v>181081129</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9">
       <c r="A763">
         <f t="shared" si="11"/>
         <v>762</v>
@@ -44000,7 +44001,7 @@
         <v>446207304</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9">
       <c r="A764">
         <f t="shared" si="11"/>
         <v>763</v>
@@ -44030,7 +44031,7 @@
         <v>393263004</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9">
       <c r="A765">
         <f t="shared" si="11"/>
         <v>764</v>
@@ -44060,7 +44061,7 @@
         <v>1764126409</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9">
       <c r="A766">
         <f t="shared" si="11"/>
         <v>765</v>
@@ -44090,7 +44091,7 @@
         <v>1513325581</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9">
       <c r="A767">
         <f t="shared" si="11"/>
         <v>766</v>
@@ -44120,7 +44121,7 @@
         <v>1814208446</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9">
       <c r="A768">
         <f t="shared" si="11"/>
         <v>767</v>
@@ -44150,7 +44151,7 @@
         <v>1428531816</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9">
       <c r="A769">
         <f t="shared" si="11"/>
         <v>768</v>
@@ -44180,7 +44181,7 @@
         <v>467058052</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9">
       <c r="A770">
         <f t="shared" si="11"/>
         <v>769</v>
@@ -44210,7 +44211,7 @@
         <v>791950179</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9">
       <c r="A771">
         <f t="shared" si="11"/>
         <v>770</v>
@@ -44240,7 +44241,7 @@
         <v>203014347</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9">
       <c r="A772">
         <f t="shared" ref="A772:A835" si="12">A771+1</f>
         <v>771</v>
@@ -44270,7 +44271,7 @@
         <v>1858098593</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9">
       <c r="A773">
         <f t="shared" si="12"/>
         <v>772</v>
@@ -44300,7 +44301,7 @@
         <v>355857877</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9">
       <c r="A774">
         <f t="shared" si="12"/>
         <v>773</v>
@@ -44330,7 +44331,7 @@
         <v>161381844</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9">
       <c r="A775">
         <f t="shared" si="12"/>
         <v>774</v>
@@ -44360,7 +44361,7 @@
         <v>72805947</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9">
       <c r="A776">
         <f t="shared" si="12"/>
         <v>775</v>
@@ -44390,7 +44391,7 @@
         <v>1731356086</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9">
       <c r="A777">
         <f t="shared" si="12"/>
         <v>776</v>
@@ -44420,7 +44421,7 @@
         <v>498320552</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9">
       <c r="A778">
         <f t="shared" si="12"/>
         <v>777</v>
@@ -44450,7 +44451,7 @@
         <v>87294164</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9">
       <c r="A779">
         <f t="shared" si="12"/>
         <v>778</v>
@@ -44480,7 +44481,7 @@
         <v>421683447</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9">
       <c r="A780">
         <f t="shared" si="12"/>
         <v>779</v>
@@ -44510,7 +44511,7 @@
         <v>537658629</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9">
       <c r="A781">
         <f t="shared" si="12"/>
         <v>780</v>
@@ -44540,7 +44541,7 @@
         <v>1964874674</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9">
       <c r="A782">
         <f t="shared" si="12"/>
         <v>781</v>
@@ -44570,7 +44571,7 @@
         <v>1792605999</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9">
       <c r="A783">
         <f t="shared" si="12"/>
         <v>782</v>
@@ -44600,7 +44601,7 @@
         <v>1280941430</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9">
       <c r="A784">
         <f t="shared" si="12"/>
         <v>783</v>
@@ -44630,7 +44631,7 @@
         <v>259052835</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9">
       <c r="A785">
         <f t="shared" si="12"/>
         <v>784</v>
@@ -44660,7 +44661,7 @@
         <v>951645376</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9">
       <c r="A786">
         <f t="shared" si="12"/>
         <v>785</v>
@@ -44690,7 +44691,7 @@
         <v>1993115223</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9">
       <c r="A787">
         <f t="shared" si="12"/>
         <v>786</v>
@@ -44720,7 +44721,7 @@
         <v>1837627055</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9">
       <c r="A788">
         <f t="shared" si="12"/>
         <v>787</v>
@@ -44750,7 +44751,7 @@
         <v>2035585878</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9">
       <c r="A789">
         <f t="shared" si="12"/>
         <v>788</v>
@@ -44780,7 +44781,7 @@
         <v>529871189</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9">
       <c r="A790">
         <f t="shared" si="12"/>
         <v>789</v>
@@ -44810,7 +44811,7 @@
         <v>2077873061</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9">
       <c r="A791">
         <f t="shared" si="12"/>
         <v>790</v>
@@ -44840,7 +44841,7 @@
         <v>433468713</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9">
       <c r="A792">
         <f t="shared" si="12"/>
         <v>791</v>
@@ -44870,7 +44871,7 @@
         <v>1044128767</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9">
       <c r="A793">
         <f t="shared" si="12"/>
         <v>792</v>
@@ -44900,7 +44901,7 @@
         <v>1583307332</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9">
       <c r="A794">
         <f t="shared" si="12"/>
         <v>793</v>
@@ -44930,7 +44931,7 @@
         <v>1176458947</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9">
       <c r="A795">
         <f t="shared" si="12"/>
         <v>794</v>
@@ -44960,7 +44961,7 @@
         <v>863584300</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9">
       <c r="A796">
         <f t="shared" si="12"/>
         <v>795</v>
@@ -44990,7 +44991,7 @@
         <v>1566843674</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9">
       <c r="A797">
         <f t="shared" si="12"/>
         <v>796</v>
@@ -45020,7 +45021,7 @@
         <v>1497149404</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9">
       <c r="A798">
         <f t="shared" si="12"/>
         <v>797</v>
@@ -45050,7 +45051,7 @@
         <v>524141129</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9">
       <c r="A799">
         <f t="shared" si="12"/>
         <v>798</v>
@@ -45080,7 +45081,7 @@
         <v>262035109</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9">
       <c r="A800">
         <f t="shared" si="12"/>
         <v>799</v>
@@ -45110,7 +45111,7 @@
         <v>1682600613</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9">
       <c r="A801">
         <f t="shared" si="12"/>
         <v>800</v>
@@ -45140,7 +45141,7 @@
         <v>1403838995</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9">
       <c r="A802">
         <f t="shared" si="12"/>
         <v>801</v>
@@ -45170,7 +45171,7 @@
         <v>2066643023</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9">
       <c r="A803">
         <f t="shared" si="12"/>
         <v>802</v>
@@ -45200,7 +45201,7 @@
         <v>668780983</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9">
       <c r="A804">
         <f t="shared" si="12"/>
         <v>803</v>
@@ -45230,7 +45231,7 @@
         <v>272572883</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9">
       <c r="A805">
         <f t="shared" si="12"/>
         <v>804</v>
@@ -45260,7 +45261,7 @@
         <v>549825530</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9">
       <c r="A806">
         <f t="shared" si="12"/>
         <v>805</v>
@@ -45290,7 +45291,7 @@
         <v>295549669</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9">
       <c r="A807">
         <f t="shared" si="12"/>
         <v>806</v>
@@ -45320,7 +45321,7 @@
         <v>173611372</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9">
       <c r="A808">
         <f t="shared" si="12"/>
         <v>807</v>
@@ -45350,7 +45351,7 @@
         <v>1603536578</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9">
       <c r="A809">
         <f t="shared" si="12"/>
         <v>808</v>
@@ -45380,7 +45381,7 @@
         <v>1866980243</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9">
       <c r="A810">
         <f t="shared" si="12"/>
         <v>809</v>
@@ -45410,7 +45411,7 @@
         <v>1453377784</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9">
       <c r="A811">
         <f t="shared" si="12"/>
         <v>810</v>
@@ -45440,7 +45441,7 @@
         <v>1441414710</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9">
       <c r="A812">
         <f t="shared" si="12"/>
         <v>811</v>
@@ -45470,7 +45471,7 @@
         <v>94009163</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9">
       <c r="A813">
         <f t="shared" si="12"/>
         <v>812</v>
@@ -45500,7 +45501,7 @@
         <v>1611521996</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9">
       <c r="A814">
         <f t="shared" si="12"/>
         <v>813</v>
@@ -45530,7 +45531,7 @@
         <v>786430808</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9">
       <c r="A815">
         <f t="shared" si="12"/>
         <v>814</v>
@@ -45560,7 +45561,7 @@
         <v>1928226418</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9">
       <c r="A816">
         <f t="shared" si="12"/>
         <v>815</v>
@@ -45590,7 +45591,7 @@
         <v>25690449</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9">
       <c r="A817">
         <f t="shared" si="12"/>
         <v>816</v>
@@ -45620,7 +45621,7 @@
         <v>135163296</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9">
       <c r="A818">
         <f t="shared" si="12"/>
         <v>817</v>
@@ -45650,7 +45651,7 @@
         <v>1799300993</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9">
       <c r="A819">
         <f t="shared" si="12"/>
         <v>818</v>
@@ -45680,7 +45681,7 @@
         <v>2134555944</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9">
       <c r="A820">
         <f t="shared" si="12"/>
         <v>819</v>
@@ -45710,7 +45711,7 @@
         <v>1767427673</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9">
       <c r="A821">
         <f t="shared" si="12"/>
         <v>820</v>
@@ -45740,7 +45741,7 @@
         <v>1163094807</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9">
       <c r="A822">
         <f t="shared" si="12"/>
         <v>821</v>
@@ -45770,7 +45771,7 @@
         <v>1738266255</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9">
       <c r="A823">
         <f t="shared" si="12"/>
         <v>822</v>
@@ -45800,7 +45801,7 @@
         <v>673413997</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9">
       <c r="A824">
         <f t="shared" si="12"/>
         <v>823</v>
@@ -45830,7 +45831,7 @@
         <v>830227889</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9">
       <c r="A825">
         <f t="shared" si="12"/>
         <v>824</v>
@@ -45860,7 +45861,7 @@
         <v>1438875864</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9">
       <c r="A826">
         <f t="shared" si="12"/>
         <v>825</v>
@@ -45890,7 +45891,7 @@
         <v>373297381</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9">
       <c r="A827">
         <f t="shared" si="12"/>
         <v>826</v>
@@ -45920,7 +45921,7 @@
         <v>1209349580</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9">
       <c r="A828">
         <f t="shared" si="12"/>
         <v>827</v>
@@ -45950,7 +45951,7 @@
         <v>1753155852</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:9">
       <c r="A829">
         <f t="shared" si="12"/>
         <v>828</v>
@@ -45980,7 +45981,7 @@
         <v>1814767724</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:9">
       <c r="A830">
         <f t="shared" si="12"/>
         <v>829</v>
@@ -46010,7 +46011,7 @@
         <v>90898927</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:9">
       <c r="A831">
         <f t="shared" si="12"/>
         <v>830</v>
@@ -46040,7 +46041,7 @@
         <v>877393072</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:9">
       <c r="A832">
         <f t="shared" si="12"/>
         <v>831</v>
@@ -46070,7 +46071,7 @@
         <v>1722640802</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9">
       <c r="A833">
         <f t="shared" si="12"/>
         <v>832</v>
@@ -46100,7 +46101,7 @@
         <v>49430360</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9">
       <c r="A834">
         <f t="shared" si="12"/>
         <v>833</v>
@@ -46130,7 +46131,7 @@
         <v>1847372778</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9">
       <c r="A835">
         <f t="shared" si="12"/>
         <v>834</v>
@@ -46160,7 +46161,7 @@
         <v>475711520</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9">
       <c r="A836">
         <f t="shared" ref="A836:A899" si="13">A835+1</f>
         <v>835</v>
@@ -46190,7 +46191,7 @@
         <v>201898859</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:9">
       <c r="A837">
         <f t="shared" si="13"/>
         <v>836</v>
@@ -46220,7 +46221,7 @@
         <v>289960953</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:9">
       <c r="A838">
         <f t="shared" si="13"/>
         <v>837</v>
@@ -46250,7 +46251,7 @@
         <v>733342028</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:9">
       <c r="A839">
         <f t="shared" si="13"/>
         <v>838</v>
@@ -46280,7 +46281,7 @@
         <v>870814463</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:9">
       <c r="A840">
         <f t="shared" si="13"/>
         <v>839</v>
@@ -46310,7 +46311,7 @@
         <v>677625336</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:9">
       <c r="A841">
         <f t="shared" si="13"/>
         <v>840</v>
@@ -46340,7 +46341,7 @@
         <v>743242111</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:9">
       <c r="A842">
         <f t="shared" si="13"/>
         <v>841</v>
@@ -46370,7 +46371,7 @@
         <v>1905268625</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:9">
       <c r="A843">
         <f t="shared" si="13"/>
         <v>842</v>
@@ -46400,7 +46401,7 @@
         <v>721119958</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:9">
       <c r="A844">
         <f t="shared" si="13"/>
         <v>843</v>
@@ -46430,7 +46431,7 @@
         <v>1612914085</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:9">
       <c r="A845">
         <f t="shared" si="13"/>
         <v>844</v>
@@ -46460,7 +46461,7 @@
         <v>560950514</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:9">
       <c r="A846">
         <f t="shared" si="13"/>
         <v>845</v>
@@ -46490,7 +46491,7 @@
         <v>442078468</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:9">
       <c r="A847">
         <f t="shared" si="13"/>
         <v>846</v>
@@ -46520,7 +46521,7 @@
         <v>1866876703</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:9">
       <c r="A848">
         <f t="shared" si="13"/>
         <v>847</v>
@@ -46550,7 +46551,7 @@
         <v>1860664651</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:9">
       <c r="A849">
         <f t="shared" si="13"/>
         <v>848</v>
@@ -46580,7 +46581,7 @@
         <v>533921743</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:9">
       <c r="A850">
         <f t="shared" si="13"/>
         <v>849</v>
@@ -46610,7 +46611,7 @@
         <v>1436057435</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:9">
       <c r="A851">
         <f t="shared" si="13"/>
         <v>850</v>
@@ -46640,7 +46641,7 @@
         <v>248601412</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:9">
       <c r="A852">
         <f t="shared" si="13"/>
         <v>851</v>
@@ -46670,7 +46671,7 @@
         <v>1388238069</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:9">
       <c r="A853">
         <f t="shared" si="13"/>
         <v>852</v>
@@ -46700,7 +46701,7 @@
         <v>1854884675</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:9">
       <c r="A854">
         <f t="shared" si="13"/>
         <v>853</v>
@@ -46730,7 +46731,7 @@
         <v>26629226</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:9">
       <c r="A855">
         <f t="shared" si="13"/>
         <v>854</v>
@@ -46760,7 +46761,7 @@
         <v>880802806</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:9">
       <c r="A856">
         <f t="shared" si="13"/>
         <v>855</v>
@@ -46790,7 +46791,7 @@
         <v>1047981671</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:9">
       <c r="A857">
         <f t="shared" si="13"/>
         <v>856</v>
@@ -46820,7 +46821,7 @@
         <v>1914555450</v>
       </c>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:9">
       <c r="A858">
         <f t="shared" si="13"/>
         <v>857</v>
@@ -46850,7 +46851,7 @@
         <v>38481502</v>
       </c>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:9">
       <c r="A859">
         <f t="shared" si="13"/>
         <v>858</v>
@@ -46880,7 +46881,7 @@
         <v>366026367</v>
       </c>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:9">
       <c r="A860">
         <f t="shared" si="13"/>
         <v>859</v>
@@ -46910,7 +46911,7 @@
         <v>1411985161</v>
       </c>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:9">
       <c r="A861">
         <f t="shared" si="13"/>
         <v>860</v>
@@ -46940,7 +46941,7 @@
         <v>1540301577</v>
       </c>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:9">
       <c r="A862">
         <f t="shared" si="13"/>
         <v>861</v>
@@ -46970,7 +46971,7 @@
         <v>2080723701</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:9">
       <c r="A863">
         <f t="shared" si="13"/>
         <v>862</v>
@@ -47000,7 +47001,7 @@
         <v>1099534959</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:9">
       <c r="A864">
         <f t="shared" si="13"/>
         <v>863</v>
@@ -47030,7 +47031,7 @@
         <v>787273478</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9">
       <c r="A865">
         <f t="shared" si="13"/>
         <v>864</v>
@@ -47060,7 +47061,7 @@
         <v>1058595579</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9">
       <c r="A866">
         <f t="shared" si="13"/>
         <v>865</v>
@@ -47090,7 +47091,7 @@
         <v>2061364505</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:9">
       <c r="A867">
         <f t="shared" si="13"/>
         <v>866</v>
@@ -47120,7 +47121,7 @@
         <v>2147042131</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:9">
       <c r="A868">
         <f t="shared" si="13"/>
         <v>867</v>
@@ -47150,7 +47151,7 @@
         <v>1169375176</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:9">
       <c r="A869">
         <f t="shared" si="13"/>
         <v>868</v>
@@ -47180,7 +47181,7 @@
         <v>2065729335</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:9">
       <c r="A870">
         <f t="shared" si="13"/>
         <v>869</v>
@@ -47210,7 +47211,7 @@
         <v>344812296</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9">
       <c r="A871">
         <f t="shared" si="13"/>
         <v>870</v>
@@ -47240,7 +47241,7 @@
         <v>1349379266</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:9">
       <c r="A872">
         <f t="shared" si="13"/>
         <v>871</v>
@@ -47270,7 +47271,7 @@
         <v>1590011342</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:9">
       <c r="A873">
         <f t="shared" si="13"/>
         <v>872</v>
@@ -47300,7 +47301,7 @@
         <v>34121726</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:9">
       <c r="A874">
         <f t="shared" si="13"/>
         <v>873</v>
@@ -47330,7 +47331,7 @@
         <v>105715133</v>
       </c>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:9">
       <c r="A875">
         <f t="shared" si="13"/>
         <v>874</v>
@@ -47360,7 +47361,7 @@
         <v>785264262</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:9">
       <c r="A876">
         <f t="shared" si="13"/>
         <v>875</v>
@@ -47390,7 +47391,7 @@
         <v>1649440619</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:9">
       <c r="A877">
         <f t="shared" si="13"/>
         <v>876</v>
@@ -47420,7 +47421,7 @@
         <v>282084410</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:9">
       <c r="A878">
         <f t="shared" si="13"/>
         <v>877</v>
@@ -47450,7 +47451,7 @@
         <v>1496269941</v>
       </c>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:9">
       <c r="A879">
         <f t="shared" si="13"/>
         <v>878</v>
@@ -47480,7 +47481,7 @@
         <v>775392017</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9">
       <c r="A880">
         <f t="shared" si="13"/>
         <v>879</v>
@@ -47510,7 +47511,7 @@
         <v>1082859723</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:9">
       <c r="A881">
         <f t="shared" si="13"/>
         <v>880</v>
@@ -47540,7 +47541,7 @@
         <v>1846939783</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:9">
       <c r="A882">
         <f t="shared" si="13"/>
         <v>881</v>
@@ -47570,7 +47571,7 @@
         <v>1788299143</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:9">
       <c r="A883">
         <f t="shared" si="13"/>
         <v>882</v>
@@ -47600,7 +47601,7 @@
         <v>1910056636</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:9">
       <c r="A884">
         <f t="shared" si="13"/>
         <v>883</v>
@@ -47630,7 +47631,7 @@
         <v>1736325896</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:9">
       <c r="A885">
         <f t="shared" si="13"/>
         <v>884</v>
@@ -47660,7 +47661,7 @@
         <v>274054989</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:9">
       <c r="A886">
         <f t="shared" si="13"/>
         <v>885</v>
@@ -47690,7 +47691,7 @@
         <v>1837260955</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:9">
       <c r="A887">
         <f t="shared" si="13"/>
         <v>886</v>
@@ -47720,7 +47721,7 @@
         <v>177510472</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:9">
       <c r="A888">
         <f t="shared" si="13"/>
         <v>887</v>
@@ -47750,7 +47751,7 @@
         <v>563717221</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:9">
       <c r="A889">
         <f t="shared" si="13"/>
         <v>888</v>
@@ -47780,7 +47781,7 @@
         <v>1844966430</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:9">
       <c r="A890">
         <f t="shared" si="13"/>
         <v>889</v>
@@ -47810,7 +47811,7 @@
         <v>834409977</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:9">
       <c r="A891">
         <f t="shared" si="13"/>
         <v>890</v>
@@ -47840,7 +47841,7 @@
         <v>860268529</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9">
       <c r="A892">
         <f t="shared" si="13"/>
         <v>891</v>
@@ -47870,7 +47871,7 @@
         <v>1673255299</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:9">
       <c r="A893">
         <f t="shared" si="13"/>
         <v>892</v>
@@ -47900,7 +47901,7 @@
         <v>1103452828</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:9">
       <c r="A894">
         <f t="shared" si="13"/>
         <v>893</v>
@@ -47930,7 +47931,7 @@
         <v>62904704</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:9">
       <c r="A895">
         <f t="shared" si="13"/>
         <v>894</v>
@@ -47960,7 +47961,7 @@
         <v>677405804</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:9">
       <c r="A896">
         <f t="shared" si="13"/>
         <v>895</v>
@@ -47990,7 +47991,7 @@
         <v>1348535081</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:9">
       <c r="A897">
         <f t="shared" si="13"/>
         <v>896</v>
@@ -48020,7 +48021,7 @@
         <v>286695929</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:9">
       <c r="A898">
         <f t="shared" si="13"/>
         <v>897</v>
@@ -48050,7 +48051,7 @@
         <v>1692658482</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:9">
       <c r="A899">
         <f t="shared" si="13"/>
         <v>898</v>
@@ -48080,7 +48081,7 @@
         <v>795235165</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:9">
       <c r="A900">
         <f t="shared" ref="A900:A963" si="14">A899+1</f>
         <v>899</v>
@@ -48110,7 +48111,7 @@
         <v>1726682874</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:9">
       <c r="A901">
         <f t="shared" si="14"/>
         <v>900</v>
@@ -48140,7 +48141,7 @@
         <v>1412541407</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:9">
       <c r="A902">
         <f t="shared" si="14"/>
         <v>901</v>
@@ -48170,7 +48171,7 @@
         <v>151709864</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:9">
       <c r="A903">
         <f t="shared" si="14"/>
         <v>902</v>
@@ -48200,7 +48201,7 @@
         <v>724595259</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:9">
       <c r="A904">
         <f t="shared" si="14"/>
         <v>903</v>
@@ -48230,7 +48231,7 @@
         <v>2040239523</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:9">
       <c r="A905">
         <f t="shared" si="14"/>
         <v>904</v>
@@ -48260,7 +48261,7 @@
         <v>1434271412</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:9">
       <c r="A906">
         <f t="shared" si="14"/>
         <v>905</v>
@@ -48290,7 +48291,7 @@
         <v>295683909</v>
       </c>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:9">
       <c r="A907">
         <f t="shared" si="14"/>
         <v>906</v>
@@ -48320,7 +48321,7 @@
         <v>282299405</v>
       </c>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:9">
       <c r="A908">
         <f t="shared" si="14"/>
         <v>907</v>
@@ -48350,7 +48351,7 @@
         <v>814723612</v>
       </c>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:9">
       <c r="A909">
         <f t="shared" si="14"/>
         <v>908</v>
@@ -48380,7 +48381,7 @@
         <v>704013612</v>
       </c>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:9">
       <c r="A910">
         <f t="shared" si="14"/>
         <v>909</v>
@@ -48410,7 +48411,7 @@
         <v>1869365561</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:9">
       <c r="A911">
         <f t="shared" si="14"/>
         <v>910</v>
@@ -48440,7 +48441,7 @@
         <v>741228117</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:9">
       <c r="A912">
         <f t="shared" si="14"/>
         <v>911</v>
@@ -48470,7 +48471,7 @@
         <v>268326172</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:9">
       <c r="A913">
         <f t="shared" si="14"/>
         <v>912</v>
@@ -48500,7 +48501,7 @@
         <v>42314104</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:9">
       <c r="A914">
         <f t="shared" si="14"/>
         <v>913</v>
@@ -48530,7 +48531,7 @@
         <v>356058771</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:9">
       <c r="A915">
         <f t="shared" si="14"/>
         <v>914</v>
@@ -48560,7 +48561,7 @@
         <v>1390323655</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:9">
       <c r="A916">
         <f t="shared" si="14"/>
         <v>915</v>
@@ -48590,7 +48591,7 @@
         <v>400106578</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:9">
       <c r="A917">
         <f t="shared" si="14"/>
         <v>916</v>
@@ -48620,7 +48621,7 @@
         <v>819957689</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:9">
       <c r="A918">
         <f t="shared" si="14"/>
         <v>917</v>
@@ -48650,7 +48651,7 @@
         <v>626316224</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:9">
       <c r="A919">
         <f t="shared" si="14"/>
         <v>918</v>
@@ -48680,7 +48681,7 @@
         <v>1679422821</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:9">
       <c r="A920">
         <f t="shared" si="14"/>
         <v>919</v>
@@ -48710,7 +48711,7 @@
         <v>1681780026</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:9">
       <c r="A921">
         <f t="shared" si="14"/>
         <v>920</v>
@@ -48740,7 +48741,7 @@
         <v>497135168</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:9">
       <c r="A922">
         <f t="shared" si="14"/>
         <v>921</v>
@@ -48770,7 +48771,7 @@
         <v>1639381746</v>
       </c>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:9">
       <c r="A923">
         <f t="shared" si="14"/>
         <v>922</v>
@@ -48800,7 +48801,7 @@
         <v>873814012</v>
       </c>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:9">
       <c r="A924">
         <f t="shared" si="14"/>
         <v>923</v>
@@ -48830,7 +48831,7 @@
         <v>1698921498</v>
       </c>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:9">
       <c r="A925">
         <f t="shared" si="14"/>
         <v>924</v>
@@ -48860,7 +48861,7 @@
         <v>831046374</v>
       </c>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:9">
       <c r="A926">
         <f t="shared" si="14"/>
         <v>925</v>
@@ -48890,7 +48891,7 @@
         <v>162767730</v>
       </c>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:9">
       <c r="A927">
         <f t="shared" si="14"/>
         <v>926</v>
@@ -48920,7 +48921,7 @@
         <v>1890555479</v>
       </c>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:9">
       <c r="A928">
         <f t="shared" si="14"/>
         <v>927</v>
@@ -48950,7 +48951,7 @@
         <v>397894541</v>
       </c>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:9">
       <c r="A929">
         <f t="shared" si="14"/>
         <v>928</v>
@@ -48980,7 +48981,7 @@
         <v>149473829</v>
       </c>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:9">
       <c r="A930">
         <f t="shared" si="14"/>
         <v>929</v>
@@ -49010,7 +49011,7 @@
         <v>1798260660</v>
       </c>
     </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:9">
       <c r="A931">
         <f t="shared" si="14"/>
         <v>930</v>
@@ -49040,7 +49041,7 @@
         <v>1829548389</v>
       </c>
     </row>
-    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:9">
       <c r="A932">
         <f t="shared" si="14"/>
         <v>931</v>
@@ -49070,7 +49071,7 @@
         <v>1548916177</v>
       </c>
     </row>
-    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:9">
       <c r="A933">
         <f t="shared" si="14"/>
         <v>932</v>
@@ -49100,7 +49101,7 @@
         <v>837417905</v>
       </c>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:9">
       <c r="A934">
         <f t="shared" si="14"/>
         <v>933</v>
@@ -49130,7 +49131,7 @@
         <v>2022390544</v>
       </c>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:9">
       <c r="A935">
         <f t="shared" si="14"/>
         <v>934</v>
@@ -49160,7 +49161,7 @@
         <v>2094191939</v>
       </c>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:9">
       <c r="A936">
         <f t="shared" si="14"/>
         <v>935</v>
@@ -49190,7 +49191,7 @@
         <v>1974428090</v>
       </c>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:9">
       <c r="A937">
         <f t="shared" si="14"/>
         <v>936</v>
@@ -49220,7 +49221,7 @@
         <v>1295595186</v>
       </c>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:9">
       <c r="A938">
         <f t="shared" si="14"/>
         <v>937</v>
@@ -49250,7 +49251,7 @@
         <v>1731594169</v>
       </c>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:9">
       <c r="A939">
         <f t="shared" si="14"/>
         <v>938</v>
@@ -49280,7 +49281,7 @@
         <v>204814239</v>
       </c>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:9">
       <c r="A940">
         <f t="shared" si="14"/>
         <v>939</v>
@@ -49310,7 +49311,7 @@
         <v>2044112379</v>
       </c>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:9">
       <c r="A941">
         <f t="shared" si="14"/>
         <v>940</v>
@@ -49340,7 +49341,7 @@
         <v>2100852794</v>
       </c>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:9">
       <c r="A942">
         <f t="shared" si="14"/>
         <v>941</v>
@@ -49370,7 +49371,7 @@
         <v>106784784</v>
       </c>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:9">
       <c r="A943">
         <f t="shared" si="14"/>
         <v>942</v>
@@ -49400,7 +49401,7 @@
         <v>1583019443</v>
       </c>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:9">
       <c r="A944">
         <f t="shared" si="14"/>
         <v>943</v>
@@ -49430,7 +49431,7 @@
         <v>632875818</v>
       </c>
     </row>
-    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:9">
       <c r="A945">
         <f t="shared" si="14"/>
         <v>944</v>
@@ -49460,7 +49461,7 @@
         <v>257369535</v>
       </c>
     </row>
-    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:9">
       <c r="A946">
         <f t="shared" si="14"/>
         <v>945</v>
@@ -49490,7 +49491,7 @@
         <v>577709687</v>
       </c>
     </row>
-    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:9">
       <c r="A947">
         <f t="shared" si="14"/>
         <v>946</v>
@@ -49520,7 +49521,7 @@
         <v>793141322</v>
       </c>
     </row>
-    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:9">
       <c r="A948">
         <f t="shared" si="14"/>
         <v>947</v>
@@ -49550,7 +49551,7 @@
         <v>895201925</v>
       </c>
     </row>
-    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:9">
       <c r="A949">
         <f t="shared" si="14"/>
         <v>948</v>
@@ -49580,7 +49581,7 @@
         <v>388322593</v>
       </c>
     </row>
-    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:9">
       <c r="A950">
         <f t="shared" si="14"/>
         <v>949</v>
@@ -49610,7 +49611,7 @@
         <v>335017318</v>
       </c>
     </row>
-    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:9">
       <c r="A951">
         <f t="shared" si="14"/>
         <v>950</v>
@@ -49640,7 +49641,7 @@
         <v>2081424839</v>
       </c>
     </row>
-    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:9">
       <c r="A952">
         <f t="shared" si="14"/>
         <v>951</v>
@@ -49670,7 +49671,7 @@
         <v>2146143090</v>
       </c>
     </row>
-    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:9">
       <c r="A953">
         <f t="shared" si="14"/>
         <v>952</v>
@@ -49700,7 +49701,7 @@
         <v>1091578618</v>
       </c>
     </row>
-    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:9">
       <c r="A954">
         <f t="shared" si="14"/>
         <v>953</v>
@@ -49730,7 +49731,7 @@
         <v>209036405</v>
       </c>
     </row>
-    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:9">
       <c r="A955">
         <f t="shared" si="14"/>
         <v>954</v>
@@ -49760,7 +49761,7 @@
         <v>2139095990</v>
       </c>
     </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:9">
       <c r="A956">
         <f t="shared" si="14"/>
         <v>955</v>
@@ -49790,7 +49791,7 @@
         <v>762569503</v>
       </c>
     </row>
-    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:9">
       <c r="A957">
         <f t="shared" si="14"/>
         <v>956</v>
@@ -49820,7 +49821,7 @@
         <v>323231625</v>
       </c>
     </row>
-    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:9">
       <c r="A958">
         <f t="shared" si="14"/>
         <v>957</v>
@@ -49850,7 +49851,7 @@
         <v>1567778112</v>
       </c>
     </row>
-    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:9">
       <c r="A959">
         <f t="shared" si="14"/>
         <v>958</v>
@@ -49880,7 +49881,7 @@
         <v>22379694</v>
       </c>
     </row>
-    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:9">
       <c r="A960">
         <f t="shared" si="14"/>
         <v>959</v>
@@ -49910,7 +49911,7 @@
         <v>325878833</v>
       </c>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:9">
       <c r="A961">
         <f t="shared" si="14"/>
         <v>960</v>
@@ -49940,7 +49941,7 @@
         <v>962246381</v>
       </c>
     </row>
-    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:9">
       <c r="A962">
         <f t="shared" si="14"/>
         <v>961</v>
@@ -49970,7 +49971,7 @@
         <v>1923063557</v>
       </c>
     </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:9">
       <c r="A963">
         <f t="shared" si="14"/>
         <v>962</v>
@@ -50000,7 +50001,7 @@
         <v>1300315149</v>
       </c>
     </row>
-    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:9">
       <c r="A964">
         <f t="shared" ref="A964:A1001" si="15">A963+1</f>
         <v>963</v>
@@ -50030,7 +50031,7 @@
         <v>1603117371</v>
       </c>
     </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:9">
       <c r="A965">
         <f t="shared" si="15"/>
         <v>964</v>
@@ -50060,7 +50061,7 @@
         <v>1263819135</v>
       </c>
     </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:9">
       <c r="A966">
         <f t="shared" si="15"/>
         <v>965</v>
@@ -50090,7 +50091,7 @@
         <v>247449468</v>
       </c>
     </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:9">
       <c r="A967">
         <f t="shared" si="15"/>
         <v>966</v>
@@ -50120,7 +50121,7 @@
         <v>1354868084</v>
       </c>
     </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:9">
       <c r="A968">
         <f t="shared" si="15"/>
         <v>967</v>
@@ -50150,7 +50151,7 @@
         <v>1498778647</v>
       </c>
     </row>
-    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:9">
       <c r="A969">
         <f t="shared" si="15"/>
         <v>968</v>
@@ -50180,7 +50181,7 @@
         <v>2137024466</v>
       </c>
     </row>
-    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:9">
       <c r="A970">
         <f t="shared" si="15"/>
         <v>969</v>
@@ -50210,7 +50211,7 @@
         <v>306203987</v>
       </c>
     </row>
-    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:9">
       <c r="A971">
         <f t="shared" si="15"/>
         <v>970</v>
@@ -50240,7 +50241,7 @@
         <v>999591297</v>
       </c>
     </row>
-    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:9">
       <c r="A972">
         <f t="shared" si="15"/>
         <v>971</v>
@@ -50270,7 +50271,7 @@
         <v>366358198</v>
       </c>
     </row>
-    <row r="973" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:9">
       <c r="A973">
         <f t="shared" si="15"/>
         <v>972</v>
@@ -50300,7 +50301,7 @@
         <v>546617837</v>
       </c>
     </row>
-    <row r="974" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:9">
       <c r="A974">
         <f t="shared" si="15"/>
         <v>973</v>
@@ -50330,7 +50331,7 @@
         <v>70944593</v>
       </c>
     </row>
-    <row r="975" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:9">
       <c r="A975">
         <f t="shared" si="15"/>
         <v>974</v>
@@ -50360,7 +50361,7 @@
         <v>512350466</v>
       </c>
     </row>
-    <row r="976" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:9">
       <c r="A976">
         <f t="shared" si="15"/>
         <v>975</v>
@@ -50390,7 +50391,7 @@
         <v>1812341239</v>
       </c>
     </row>
-    <row r="977" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:9">
       <c r="A977">
         <f t="shared" si="15"/>
         <v>976</v>
@@ -50420,7 +50421,7 @@
         <v>111154825</v>
       </c>
     </row>
-    <row r="978" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:9">
       <c r="A978">
         <f t="shared" si="15"/>
         <v>977</v>
@@ -50450,7 +50451,7 @@
         <v>2015854532</v>
       </c>
     </row>
-    <row r="979" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:9">
       <c r="A979">
         <f t="shared" si="15"/>
         <v>978</v>
@@ -50480,7 +50481,7 @@
         <v>1765104252</v>
       </c>
     </row>
-    <row r="980" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:9">
       <c r="A980">
         <f t="shared" si="15"/>
         <v>979</v>
@@ -50510,7 +50511,7 @@
         <v>768063706</v>
       </c>
     </row>
-    <row r="981" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:9">
       <c r="A981">
         <f t="shared" si="15"/>
         <v>980</v>
@@ -50540,7 +50541,7 @@
         <v>322504625</v>
       </c>
     </row>
-    <row r="982" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:9">
       <c r="A982">
         <f t="shared" si="15"/>
         <v>981</v>
@@ -50570,7 +50571,7 @@
         <v>86507347</v>
       </c>
     </row>
-    <row r="983" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:9">
       <c r="A983">
         <f t="shared" si="15"/>
         <v>982</v>
@@ -50600,7 +50601,7 @@
         <v>82552010</v>
       </c>
     </row>
-    <row r="984" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:9">
       <c r="A984">
         <f t="shared" si="15"/>
         <v>983</v>
@@ -50630,7 +50631,7 @@
         <v>177196108</v>
       </c>
     </row>
-    <row r="985" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:9">
       <c r="A985">
         <f t="shared" si="15"/>
         <v>984</v>
@@ -50660,7 +50661,7 @@
         <v>1722652414</v>
       </c>
     </row>
-    <row r="986" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:9">
       <c r="A986">
         <f t="shared" si="15"/>
         <v>985</v>
@@ -50690,7 +50691,7 @@
         <v>244593244</v>
       </c>
     </row>
-    <row r="987" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:9">
       <c r="A987">
         <f t="shared" si="15"/>
         <v>986</v>
@@ -50720,7 +50721,7 @@
         <v>594951550</v>
       </c>
     </row>
-    <row r="988" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:9">
       <c r="A988">
         <f t="shared" si="15"/>
         <v>987</v>
@@ -50750,7 +50751,7 @@
         <v>666840418</v>
       </c>
     </row>
-    <row r="989" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:9">
       <c r="A989">
         <f t="shared" si="15"/>
         <v>988</v>
@@ -50780,7 +50781,7 @@
         <v>2017235280</v>
       </c>
     </row>
-    <row r="990" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:9">
       <c r="A990">
         <f t="shared" si="15"/>
         <v>989</v>
@@ -50810,7 +50811,7 @@
         <v>1349015771</v>
       </c>
     </row>
-    <row r="991" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:9">
       <c r="A991">
         <f t="shared" si="15"/>
         <v>990</v>
@@ -50840,7 +50841,7 @@
         <v>1923201818</v>
       </c>
     </row>
-    <row r="992" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:9">
       <c r="A992">
         <f t="shared" si="15"/>
         <v>991</v>
@@ -50870,7 +50871,7 @@
         <v>1476584129</v>
       </c>
     </row>
-    <row r="993" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:9">
       <c r="A993">
         <f t="shared" si="15"/>
         <v>992</v>
@@ -50900,7 +50901,7 @@
         <v>628431371</v>
       </c>
     </row>
-    <row r="994" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:9">
       <c r="A994">
         <f t="shared" si="15"/>
         <v>993</v>
@@ -50930,7 +50931,7 @@
         <v>721476451</v>
       </c>
     </row>
-    <row r="995" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:9">
       <c r="A995">
         <f t="shared" si="15"/>
         <v>994</v>
@@ -50960,7 +50961,7 @@
         <v>1162040995</v>
       </c>
     </row>
-    <row r="996" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:9">
       <c r="A996">
         <f t="shared" si="15"/>
         <v>995</v>
@@ -50990,7 +50991,7 @@
         <v>1206717147</v>
       </c>
     </row>
-    <row r="997" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:9">
       <c r="A997">
         <f t="shared" si="15"/>
         <v>996</v>
@@ -51020,7 +51021,7 @@
         <v>459527361</v>
       </c>
     </row>
-    <row r="998" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:9">
       <c r="A998">
         <f t="shared" si="15"/>
         <v>997</v>
@@ -51050,7 +51051,7 @@
         <v>925161715</v>
       </c>
     </row>
-    <row r="999" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:9">
       <c r="A999">
         <f t="shared" si="15"/>
         <v>998</v>
@@ -51080,7 +51081,7 @@
         <v>1411339725</v>
       </c>
     </row>
-    <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:9">
       <c r="A1000">
         <f t="shared" si="15"/>
         <v>999</v>
@@ -51110,7 +51111,7 @@
         <v>1429876960</v>
       </c>
     </row>
-    <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:9">
       <c r="A1001">
         <f t="shared" si="15"/>
         <v>1000</v>
